--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,431 +403,288 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B2">
-        <v>1.933</v>
+        <v>4.479</v>
       </c>
       <c r="C2">
-        <v>12.903</v>
+        <v>1.174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.08400000000000001</v>
+        <v>12.146</v>
       </c>
       <c r="C3">
-        <v>6.527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.438</v>
+        <v>3.927</v>
       </c>
       <c r="C4">
-        <v>7.227</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B5">
-        <v>18.736</v>
+        <v>0.438</v>
       </c>
       <c r="C5">
-        <v>0.023</v>
+        <v>16.108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B6">
-        <v>3.617</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.869</v>
+        <v>70.155</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B7">
-        <v>5.144</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.712</v>
+        <v>62.613</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B8">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.93</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.671</v>
+        <v>19.555</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="C10">
-        <v>20.145</v>
+        <v>16.731</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>27.505</v>
       </c>
       <c r="C11">
-        <v>19.962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>16.479</v>
       </c>
       <c r="C12">
-        <v>26.742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6.513</v>
       </c>
       <c r="C13">
-        <v>14.223</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>19.433</v>
+        <v>8.257999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>20.405</v>
+        <v>18.763</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>12.971</v>
+        <v>19.018</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B17">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>5.442</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>18.395</v>
+        <v>16.178</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>24.012</v>
+        <v>22.429</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B20">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>8.302</v>
+        <v>28.596</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>5.43</v>
+        <v>44.248</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.157</v>
+        <v>0.538</v>
       </c>
       <c r="C22">
-        <v>7.199</v>
+        <v>11.246</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.878</v>
+        <v>21.588</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B24">
-        <v>1.123</v>
+        <v>0.243</v>
       </c>
       <c r="C24">
-        <v>7.363</v>
+        <v>10.626</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.973</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="C25">
-        <v>5.917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B26">
-        <v>0.051</v>
+        <v>2.683</v>
       </c>
       <c r="C26">
-        <v>6.899</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.611</v>
       </c>
       <c r="C27">
-        <v>10.898</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>45776.27083333334</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>8.667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>45776.28125</v>
-      </c>
-      <c r="B29">
-        <v>0.497</v>
-      </c>
-      <c r="C29">
-        <v>12.906</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>45776.29166666666</v>
-      </c>
-      <c r="B30">
-        <v>16.085</v>
-      </c>
-      <c r="C30">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>45776.30208333334</v>
-      </c>
-      <c r="B31">
-        <v>9.872999999999999</v>
-      </c>
-      <c r="C31">
-        <v>0.237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45776.3125</v>
-      </c>
-      <c r="B32">
-        <v>0.042</v>
-      </c>
-      <c r="C32">
-        <v>2.977</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45776.32291666666</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>9.720000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45776.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>3.854</v>
-      </c>
-      <c r="C34">
-        <v>3.693</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45776.34375</v>
-      </c>
-      <c r="B35">
-        <v>0.105</v>
-      </c>
-      <c r="C35">
-        <v>9.846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45776.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>14.906</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45776.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>21.227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45776.375</v>
-      </c>
-      <c r="B38">
-        <v>5.207</v>
-      </c>
-      <c r="C38">
-        <v>0.276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45776.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>0.144</v>
-      </c>
-      <c r="C39">
-        <v>10.087</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45776.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>17.009</v>
+        <v>1.419</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,21 +403,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B2">
-        <v>4.479</v>
+        <v>2.589</v>
       </c>
       <c r="C2">
-        <v>1.174</v>
+        <v>3.991</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B3">
-        <v>12.146</v>
+        <v>18.711</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -425,241 +425,241 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B4">
-        <v>3.927</v>
+        <v>11.542</v>
       </c>
       <c r="C4">
-        <v>0.216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B5">
-        <v>0.438</v>
+        <v>1.028</v>
       </c>
       <c r="C5">
-        <v>16.108</v>
+        <v>20.797</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>70.155</v>
+        <v>48.028</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>62.613</v>
+        <v>34.269</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>35.32</v>
+        <v>45.574</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="C9">
-        <v>19.555</v>
+        <v>18.034</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.259</v>
+        <v>0.429</v>
       </c>
       <c r="C10">
-        <v>16.731</v>
+        <v>4.807</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B11">
-        <v>27.505</v>
+        <v>4.871</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.653</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B12">
-        <v>16.479</v>
+        <v>8.83</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.166</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B13">
-        <v>6.513</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.735</v>
+        <v>18.034</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="C14">
-        <v>8.257999999999999</v>
+        <v>19.505</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.821</v>
       </c>
       <c r="C15">
-        <v>18.763</v>
+        <v>8.074999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>8.507</v>
       </c>
       <c r="C16">
-        <v>19.018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>14.788</v>
       </c>
       <c r="C17">
-        <v>20.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>26.351</v>
       </c>
       <c r="C18">
-        <v>16.178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2.519</v>
       </c>
       <c r="C19">
-        <v>22.429</v>
+        <v>3.586</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="C20">
-        <v>28.596</v>
+        <v>3.036</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="C21">
-        <v>44.248</v>
+        <v>7.374</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.538</v>
+        <v>1.005</v>
       </c>
       <c r="C22">
-        <v>11.246</v>
+        <v>11.425</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>8.589</v>
       </c>
       <c r="C23">
-        <v>21.588</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.243</v>
+        <v>26.403</v>
       </c>
       <c r="C24">
-        <v>10.626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B25">
-        <v>8.673999999999999</v>
+        <v>49.013</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -667,24 +667,178 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B26">
-        <v>2.683</v>
+        <v>58.032</v>
       </c>
       <c r="C26">
-        <v>15.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B27">
+        <v>6.559</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45797.27083333334</v>
+      </c>
+      <c r="B28">
+        <v>6.819</v>
+      </c>
+      <c r="C28">
+        <v>1.213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45797.28125</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>16.078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45797.29166666666</v>
+      </c>
+      <c r="B30">
+        <v>4.279</v>
+      </c>
+      <c r="C30">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45797.30208333334</v>
+      </c>
+      <c r="B31">
+        <v>9.332000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45797.3125</v>
+      </c>
+      <c r="B32">
+        <v>0.077</v>
+      </c>
+      <c r="C32">
+        <v>18.348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45797.32291666666</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>72.069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45797.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>62.473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45797.34375</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>123.154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45797.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>146.333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45797.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>154.533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45797.375</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>28.555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45797.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45797.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>39.258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45797.40625</v>
+      </c>
+      <c r="B41">
         <v>0.611</v>
       </c>
-      <c r="C27">
-        <v>1.419</v>
+      <c r="C41">
+        <v>8.821</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,164 +403,164 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45797</v>
+        <v>45799</v>
       </c>
       <c r="B2">
-        <v>2.589</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.991</v>
+        <v>12.453</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45797.01041666666</v>
+        <v>45799.01041666666</v>
       </c>
       <c r="B3">
-        <v>18.711</v>
+        <v>1.082</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45797.02083333334</v>
+        <v>45799.02083333334</v>
       </c>
       <c r="B4">
-        <v>11.542</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>12.529</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45797.03125</v>
+        <v>45799.03125</v>
       </c>
       <c r="B5">
-        <v>1.028</v>
+        <v>1.906</v>
       </c>
       <c r="C5">
-        <v>20.797</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45797.04166666666</v>
+        <v>45799.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.135</v>
       </c>
       <c r="C6">
-        <v>48.028</v>
+        <v>4.713</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45797.05208333334</v>
+        <v>45799.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="C7">
-        <v>34.269</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45797.0625</v>
+        <v>45799.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.342</v>
       </c>
       <c r="C8">
-        <v>45.574</v>
+        <v>5.295</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45797.07291666666</v>
+        <v>45799.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.346</v>
+        <v>0.015</v>
       </c>
       <c r="C9">
-        <v>18.034</v>
+        <v>7.873</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45797.08333333334</v>
+        <v>45799.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.429</v>
+        <v>2.208</v>
       </c>
       <c r="C10">
-        <v>4.807</v>
+        <v>1.982</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45797.09375</v>
+        <v>45799.09375</v>
       </c>
       <c r="B11">
-        <v>4.871</v>
+        <v>25.745</v>
       </c>
       <c r="C11">
-        <v>3.653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45797.10416666666</v>
+        <v>45799.10416666666</v>
       </c>
       <c r="B12">
-        <v>8.83</v>
+        <v>17.831</v>
       </c>
       <c r="C12">
-        <v>1.166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45797.11458333334</v>
+        <v>45799.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>30.847</v>
       </c>
       <c r="C13">
-        <v>18.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45797.125</v>
+        <v>45799.125</v>
       </c>
       <c r="B14">
-        <v>0.027</v>
+        <v>30.197</v>
       </c>
       <c r="C14">
-        <v>19.505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45797.13541666666</v>
+        <v>45799.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.821</v>
+        <v>41.48</v>
       </c>
       <c r="C15">
-        <v>8.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45797.14583333334</v>
+        <v>45799.14583333334</v>
       </c>
       <c r="B16">
-        <v>8.507</v>
+        <v>50.307</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45797.15625</v>
+        <v>45799.15625</v>
       </c>
       <c r="B17">
-        <v>14.788</v>
+        <v>55.676</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45797.16666666666</v>
+        <v>45799.16666666666</v>
       </c>
       <c r="B18">
-        <v>26.351</v>
+        <v>30.654</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -590,65 +590,65 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45797.17708333334</v>
+        <v>45799.17708333334</v>
       </c>
       <c r="B19">
-        <v>2.519</v>
+        <v>33.482</v>
       </c>
       <c r="C19">
-        <v>3.586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45797.1875</v>
+        <v>45799.1875</v>
       </c>
       <c r="B20">
-        <v>0.981</v>
+        <v>43.8</v>
       </c>
       <c r="C20">
-        <v>3.036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45797.19791666666</v>
+        <v>45799.19791666666</v>
       </c>
       <c r="B21">
-        <v>1.59</v>
+        <v>43.485</v>
       </c>
       <c r="C21">
-        <v>7.374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45797.20833333334</v>
+        <v>45799.20833333334</v>
       </c>
       <c r="B22">
-        <v>1.005</v>
+        <v>33.025</v>
       </c>
       <c r="C22">
-        <v>11.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45797.21875</v>
+        <v>45799.21875</v>
       </c>
       <c r="B23">
-        <v>8.589</v>
+        <v>55.785</v>
       </c>
       <c r="C23">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45797.22916666666</v>
+        <v>45799.22916666666</v>
       </c>
       <c r="B24">
-        <v>26.403</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45797.23958333334</v>
+        <v>45799.23958333334</v>
       </c>
       <c r="B25">
-        <v>49.013</v>
+        <v>21.467</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -667,21 +667,21 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45797.25</v>
+        <v>45799.25</v>
       </c>
       <c r="B26">
-        <v>58.032</v>
+        <v>14.287</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45797.26041666666</v>
+        <v>45799.26041666666</v>
       </c>
       <c r="B27">
-        <v>6.559</v>
+        <v>46.5</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -689,156 +689,189 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45797.27083333334</v>
+        <v>45799.27083333334</v>
       </c>
       <c r="B28">
-        <v>6.819</v>
+        <v>15.996</v>
       </c>
       <c r="C28">
-        <v>1.213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45797.28125</v>
+        <v>45799.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>18.311</v>
       </c>
       <c r="C29">
-        <v>16.078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45797.29166666666</v>
+        <v>45799.29166666666</v>
       </c>
       <c r="B30">
-        <v>4.279</v>
+        <v>36.791</v>
       </c>
       <c r="C30">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45797.30208333334</v>
+        <v>45799.30208333334</v>
       </c>
       <c r="B31">
-        <v>9.332000000000001</v>
+        <v>40.946</v>
       </c>
       <c r="C31">
-        <v>0.017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45797.3125</v>
+        <v>45799.3125</v>
       </c>
       <c r="B32">
-        <v>0.077</v>
+        <v>23.144</v>
       </c>
       <c r="C32">
-        <v>18.348</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45797.32291666666</v>
+        <v>45799.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1.389</v>
       </c>
       <c r="C33">
-        <v>72.069</v>
+        <v>5.063</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45797.33333333334</v>
+        <v>45799.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>28.534</v>
       </c>
       <c r="C34">
-        <v>62.473</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45797.34375</v>
+        <v>45799.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>15.688</v>
       </c>
       <c r="C35">
-        <v>123.154</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45797.35416666666</v>
+        <v>45799.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="C36">
-        <v>146.333</v>
+        <v>33.59</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45797.36458333334</v>
+        <v>45799.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>154.533</v>
+        <v>90.681</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45797.375</v>
+        <v>45799.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>28.555</v>
+        <v>67.001</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45797.38541666666</v>
+        <v>45799.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>10.153</v>
       </c>
       <c r="C39">
-        <v>31.72</v>
+        <v>3.724</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45797.39583333334</v>
+        <v>45799.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.486</v>
       </c>
       <c r="C40">
-        <v>39.258</v>
+        <v>14.185</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45797.40625</v>
+        <v>45799.40625</v>
       </c>
       <c r="B41">
-        <v>0.611</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>8.821</v>
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45799.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>57.301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45799.42708333334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>74.40900000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45799.4375</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>28.219</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,241 +403,241 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>12.187</v>
       </c>
       <c r="C2">
-        <v>12.453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45799.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B3">
-        <v>1.082</v>
+        <v>16.47</v>
       </c>
       <c r="C3">
-        <v>1.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45799.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>14.575</v>
       </c>
       <c r="C4">
-        <v>12.529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45799.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B5">
-        <v>1.906</v>
+        <v>3.637</v>
       </c>
       <c r="C5">
-        <v>6.075</v>
+        <v>1.129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45799.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B6">
-        <v>3.135</v>
+        <v>5.038</v>
       </c>
       <c r="C6">
-        <v>4.713</v>
+        <v>1.118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45799.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="C7">
-        <v>2.2</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45799.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B8">
-        <v>0.342</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.295</v>
+        <v>6.198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45799.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7.873</v>
+        <v>14.092</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45799.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B10">
-        <v>2.208</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.982</v>
+        <v>14.61</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45799.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B11">
-        <v>25.745</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>11.589</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45799.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B12">
-        <v>17.831</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45799.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B13">
-        <v>30.847</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>11.145</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45799.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B14">
-        <v>30.197</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>9.952999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45799.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B15">
-        <v>41.48</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.711</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45799.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B16">
-        <v>50.307</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.234</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45799.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B17">
-        <v>55.676</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.965</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45799.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B18">
-        <v>30.654</v>
+        <v>0.017</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.121</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45799.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B19">
-        <v>33.482</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.379</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45799.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B20">
-        <v>43.8</v>
+        <v>0.02</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>5.745</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45799.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B21">
-        <v>43.485</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>4.214</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45799.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B22">
-        <v>33.025</v>
+        <v>6.28</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45799.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B23">
-        <v>55.785</v>
+        <v>8.981</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -645,43 +645,43 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45799.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>1.886</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45799.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B25">
-        <v>21.467</v>
+        <v>13.915</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45799.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B26">
-        <v>14.287</v>
+        <v>15.104</v>
       </c>
       <c r="C26">
-        <v>0.65</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45799.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B27">
-        <v>46.5</v>
+        <v>18.041</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -689,189 +689,13 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45799.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B28">
-        <v>15.996</v>
+        <v>46.775</v>
       </c>
       <c r="C28">
         <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>45799.28125</v>
-      </c>
-      <c r="B29">
-        <v>18.311</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>45799.29166666666</v>
-      </c>
-      <c r="B30">
-        <v>36.791</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>45799.30208333334</v>
-      </c>
-      <c r="B31">
-        <v>40.946</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45799.3125</v>
-      </c>
-      <c r="B32">
-        <v>23.144</v>
-      </c>
-      <c r="C32">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45799.32291666666</v>
-      </c>
-      <c r="B33">
-        <v>1.389</v>
-      </c>
-      <c r="C33">
-        <v>5.063</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45799.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>28.534</v>
-      </c>
-      <c r="C34">
-        <v>0.074</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45799.34375</v>
-      </c>
-      <c r="B35">
-        <v>15.688</v>
-      </c>
-      <c r="C35">
-        <v>0.343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45799.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>0.294</v>
-      </c>
-      <c r="C36">
-        <v>33.59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45799.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>90.681</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45799.375</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>67.001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45799.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>10.153</v>
-      </c>
-      <c r="C39">
-        <v>3.724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45799.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>0.486</v>
-      </c>
-      <c r="C40">
-        <v>14.185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45799.40625</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>17.46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45799.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>57.301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45799.42708333334</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>74.40900000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>45799.4375</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>28.219</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,299 +403,453 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B2">
-        <v>12.187</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>34.413</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45807.01041666666</v>
+        <v>45810.01041666666</v>
       </c>
       <c r="B3">
-        <v>16.47</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>50.902</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45807.02083333334</v>
+        <v>45810.02083333334</v>
       </c>
       <c r="B4">
-        <v>14.575</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>57.209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45807.03125</v>
+        <v>45810.03125</v>
       </c>
       <c r="B5">
-        <v>3.637</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.129</v>
+        <v>23.757</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45807.04166666666</v>
+        <v>45810.04166666666</v>
       </c>
       <c r="B6">
-        <v>5.038</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.118</v>
+        <v>6.504</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45807.05208333334</v>
+        <v>45810.05208333334</v>
       </c>
       <c r="B7">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.53</v>
+        <v>6.401</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45807.0625</v>
+        <v>45810.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.198</v>
+        <v>11.211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45807.07291666666</v>
+        <v>45810.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>14.092</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45807.08333333334</v>
+        <v>45810.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.61</v>
+        <v>22.381</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45807.09375</v>
+        <v>45810.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.589</v>
+        <v>14.747</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45807.10416666666</v>
+        <v>45810.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>12.737</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45807.11458333334</v>
+        <v>45810.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.145</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45807.125</v>
+        <v>45810.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.952999999999999</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45807.13541666666</v>
+        <v>45810.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1.711</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45807.14583333334</v>
+        <v>45810.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.234</v>
+        <v>26.557</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45807.15625</v>
+        <v>45810.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.965</v>
+        <v>19.226</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45807.16666666666</v>
+        <v>45810.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.121</v>
+        <v>22.372</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45807.17708333334</v>
+        <v>45810.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.379</v>
+        <v>29.943</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45807.1875</v>
+        <v>45810.1875</v>
       </c>
       <c r="B20">
-        <v>0.02</v>
+        <v>0.119</v>
       </c>
       <c r="C20">
-        <v>5.745</v>
+        <v>19.814</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45807.19791666666</v>
+        <v>45810.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.805</v>
       </c>
       <c r="C21">
-        <v>4.214</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45807.20833333334</v>
+        <v>45810.20833333334</v>
       </c>
       <c r="B22">
-        <v>6.28</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.065</v>
+        <v>5.452</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45807.21875</v>
+        <v>45810.21875</v>
       </c>
       <c r="B23">
-        <v>8.981</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45807.22916666666</v>
+        <v>45810.22916666666</v>
       </c>
       <c r="B24">
-        <v>1.886</v>
+        <v>0.271</v>
       </c>
       <c r="C24">
-        <v>0.052</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45807.23958333334</v>
+        <v>45810.23958333334</v>
       </c>
       <c r="B25">
-        <v>13.915</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08500000000000001</v>
+        <v>15.883</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45807.25</v>
+        <v>45810.25</v>
       </c>
       <c r="B26">
-        <v>15.104</v>
+        <v>0.537</v>
       </c>
       <c r="C26">
-        <v>0.002</v>
+        <v>6.923</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45807.26041666666</v>
+        <v>45810.26041666666</v>
       </c>
       <c r="B27">
-        <v>18.041</v>
+        <v>0.423</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>10.825</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45807.27083333334</v>
+        <v>45810.27083333334</v>
       </c>
       <c r="B28">
-        <v>46.775</v>
+        <v>3.416</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2.885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45810.28125</v>
+      </c>
+      <c r="B29">
+        <v>1.969</v>
+      </c>
+      <c r="C29">
+        <v>4.705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45810.29166666666</v>
+      </c>
+      <c r="B30">
+        <v>0.876</v>
+      </c>
+      <c r="C30">
+        <v>6.551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45810.30208333334</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45810.3125</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>16.592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45810.32291666666</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>21.985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45810.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>0.3</v>
+      </c>
+      <c r="C34">
+        <v>5.812</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45810.34375</v>
+      </c>
+      <c r="B35">
+        <v>0.008</v>
+      </c>
+      <c r="C35">
+        <v>9.670999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45810.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45810.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>6.472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45810.375</v>
+      </c>
+      <c r="B38">
+        <v>8.948</v>
+      </c>
+      <c r="C38">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45810.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>15.535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45810.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>14.502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45810.40625</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>8.679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45810.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>16.285</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,453 +403,288 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45810</v>
+        <v>45821</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>34.413</v>
+        <v>17.029</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45810.01041666666</v>
+        <v>45821.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.071</v>
       </c>
       <c r="C3">
-        <v>50.902</v>
+        <v>1.872</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45810.02083333334</v>
+        <v>45821.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5.766</v>
       </c>
       <c r="C4">
-        <v>57.209</v>
+        <v>4.823</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45810.03125</v>
+        <v>45821.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.931</v>
       </c>
       <c r="C5">
-        <v>23.757</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45810.04166666666</v>
+        <v>45821.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.495</v>
       </c>
       <c r="C6">
-        <v>6.504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45810.05208333334</v>
+        <v>45821.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8.771000000000001</v>
       </c>
       <c r="C7">
-        <v>6.401</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45810.0625</v>
+        <v>45821.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>31.398</v>
       </c>
       <c r="C8">
-        <v>11.211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45810.07291666666</v>
+        <v>45821.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>16.82</v>
       </c>
       <c r="C9">
-        <v>9.720000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45810.08333333334</v>
+        <v>45821.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>13.029</v>
       </c>
       <c r="C10">
-        <v>22.381</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45810.09375</v>
+        <v>45821.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>32.645</v>
       </c>
       <c r="C11">
-        <v>14.747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45810.10416666666</v>
+        <v>45821.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>16.655</v>
       </c>
       <c r="C12">
-        <v>12.737</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45810.11458333334</v>
+        <v>45821.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>13.633</v>
       </c>
       <c r="C13">
-        <v>20.68</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45810.125</v>
+        <v>45821.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6.688</v>
       </c>
       <c r="C14">
-        <v>41.6</v>
+        <v>2.203</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45810.13541666666</v>
+        <v>45821.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>39.379</v>
       </c>
       <c r="C15">
-        <v>21.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45810.14583333334</v>
+        <v>45821.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>26.741</v>
       </c>
       <c r="C16">
-        <v>26.557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45810.15625</v>
+        <v>45821.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>23.157</v>
       </c>
       <c r="C17">
-        <v>19.226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45810.16666666666</v>
+        <v>45821.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>16.636</v>
       </c>
       <c r="C18">
-        <v>22.372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45810.17708333334</v>
+        <v>45821.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>22.753</v>
       </c>
       <c r="C19">
-        <v>29.943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45810.1875</v>
+        <v>45821.1875</v>
       </c>
       <c r="B20">
-        <v>0.119</v>
+        <v>36.927</v>
       </c>
       <c r="C20">
-        <v>19.814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45810.19791666666</v>
+        <v>45821.19791666666</v>
       </c>
       <c r="B21">
-        <v>2.805</v>
+        <v>24.143</v>
       </c>
       <c r="C21">
-        <v>0.303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45810.20833333334</v>
+        <v>45821.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>22.49</v>
       </c>
       <c r="C22">
-        <v>5.452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45810.21875</v>
+        <v>45821.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3.185</v>
       </c>
       <c r="C23">
-        <v>2.24</v>
+        <v>2.935</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45810.22916666666</v>
+        <v>45821.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.271</v>
+        <v>5.715</v>
       </c>
       <c r="C24">
-        <v>11.16</v>
+        <v>1.527</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45810.23958333334</v>
+        <v>45821.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>10.011</v>
       </c>
       <c r="C25">
-        <v>15.883</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45810.25</v>
+        <v>45821.25</v>
       </c>
       <c r="B26">
-        <v>0.537</v>
+        <v>0.098</v>
       </c>
       <c r="C26">
-        <v>6.923</v>
+        <v>9.128</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45810.26041666666</v>
+        <v>45821.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.423</v>
+        <v>1.257</v>
       </c>
       <c r="C27">
-        <v>10.825</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>45810.27083333334</v>
-      </c>
-      <c r="B28">
-        <v>3.416</v>
-      </c>
-      <c r="C28">
-        <v>2.885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>45810.28125</v>
-      </c>
-      <c r="B29">
-        <v>1.969</v>
-      </c>
-      <c r="C29">
-        <v>4.705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>45810.29166666666</v>
-      </c>
-      <c r="B30">
-        <v>0.876</v>
-      </c>
-      <c r="C30">
-        <v>6.551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>45810.30208333334</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>14.88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45810.3125</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>16.592</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45810.32291666666</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>21.985</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45810.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>0.3</v>
-      </c>
-      <c r="C34">
-        <v>5.812</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45810.34375</v>
-      </c>
-      <c r="B35">
-        <v>0.008</v>
-      </c>
-      <c r="C35">
-        <v>9.670999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45810.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>13.18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45810.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>6.472</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45810.375</v>
-      </c>
-      <c r="B38">
-        <v>8.948</v>
-      </c>
-      <c r="C38">
-        <v>0.509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45810.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>15.535</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45810.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>14.502</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45810.40625</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>8.679</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45810.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>16.285</v>
+        <v>5.11</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,54 +403,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.948</v>
       </c>
       <c r="C2">
-        <v>17.029</v>
+        <v>10.463</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B3">
-        <v>3.071</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="C3">
-        <v>1.872</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B4">
-        <v>5.766</v>
+        <v>0.485</v>
       </c>
       <c r="C4">
-        <v>4.823</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B5">
-        <v>1.931</v>
+        <v>1.578</v>
       </c>
       <c r="C5">
-        <v>0.21</v>
+        <v>3.483</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B6">
-        <v>2.495</v>
+        <v>3.551</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -458,21 +458,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B7">
-        <v>8.771000000000001</v>
+        <v>3.374</v>
       </c>
       <c r="C7">
-        <v>0.029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B8">
-        <v>31.398</v>
+        <v>7.682</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -480,32 +480,32 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B9">
-        <v>16.82</v>
+        <v>21.438</v>
       </c>
       <c r="C9">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B10">
-        <v>13.029</v>
+        <v>21.775</v>
       </c>
       <c r="C10">
-        <v>0.737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B11">
-        <v>32.645</v>
+        <v>13.267</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -513,43 +513,43 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B12">
-        <v>16.655</v>
+        <v>19.599</v>
       </c>
       <c r="C12">
-        <v>0.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B13">
-        <v>13.633</v>
+        <v>34.697</v>
       </c>
       <c r="C13">
-        <v>0.161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B14">
-        <v>6.688</v>
+        <v>34.327</v>
       </c>
       <c r="C14">
-        <v>2.203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B15">
-        <v>39.379</v>
+        <v>20.304</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B16">
-        <v>26.741</v>
+        <v>35.943</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B17">
-        <v>23.157</v>
+        <v>9.301</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -579,54 +579,54 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B18">
-        <v>16.636</v>
+        <v>1.788</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.235</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B19">
-        <v>22.753</v>
+        <v>0.708</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.633</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B20">
-        <v>36.927</v>
+        <v>0.013</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4.135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B21">
-        <v>24.143</v>
+        <v>7.906</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B22">
-        <v>22.49</v>
+        <v>5.255</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -634,57 +634,222 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B23">
-        <v>3.185</v>
+        <v>3.173</v>
       </c>
       <c r="C23">
-        <v>2.935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B24">
-        <v>5.715</v>
+        <v>7.908</v>
       </c>
       <c r="C24">
-        <v>1.527</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B25">
-        <v>10.011</v>
+        <v>8.369</v>
       </c>
       <c r="C25">
-        <v>0.532</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B26">
-        <v>0.098</v>
+        <v>19.66</v>
       </c>
       <c r="C26">
-        <v>9.128</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B27">
-        <v>1.257</v>
+        <v>2.818</v>
       </c>
       <c r="C27">
-        <v>5.11</v>
+        <v>4.206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45825.27083333334</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>8.301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45825.28125</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>10.119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45825.29166666666</v>
+      </c>
+      <c r="B30">
+        <v>15.06</v>
+      </c>
+      <c r="C30">
+        <v>1.412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45825.30208333334</v>
+      </c>
+      <c r="B31">
+        <v>6.107</v>
+      </c>
+      <c r="C31">
+        <v>2.326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45825.3125</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3.164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45825.32291666666</v>
+      </c>
+      <c r="B33">
+        <v>0.155</v>
+      </c>
+      <c r="C33">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45825.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>20.104</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45825.34375</v>
+      </c>
+      <c r="B35">
+        <v>0.367</v>
+      </c>
+      <c r="C35">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45825.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>0.008</v>
+      </c>
+      <c r="C36">
+        <v>6.079</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45825.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>13.236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45825.375</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>8.914</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45825.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>10.834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45825.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>3.232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45825.40625</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45825.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>3.231</v>
+      </c>
+      <c r="C42">
+        <v>3.497</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,54 +403,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45825</v>
+        <v>45828</v>
       </c>
       <c r="B2">
-        <v>5.948</v>
+        <v>1.741</v>
       </c>
       <c r="C2">
-        <v>10.463</v>
+        <v>1.894</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45825.01041666666</v>
+        <v>45828.01041666666</v>
       </c>
       <c r="B3">
-        <v>8.701000000000001</v>
+        <v>20.577</v>
       </c>
       <c r="C3">
-        <v>0.254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45825.02083333334</v>
+        <v>45828.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.485</v>
+        <v>19.888</v>
       </c>
       <c r="C4">
-        <v>7.58</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45825.03125</v>
+        <v>45828.03125</v>
       </c>
       <c r="B5">
-        <v>1.578</v>
+        <v>11.107</v>
       </c>
       <c r="C5">
-        <v>3.483</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45825.04166666666</v>
+        <v>45828.04166666666</v>
       </c>
       <c r="B6">
-        <v>3.551</v>
+        <v>20.861</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -458,175 +458,175 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45825.05208333334</v>
+        <v>45828.05208333334</v>
       </c>
       <c r="B7">
-        <v>3.374</v>
+        <v>2.288</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>14.984</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45825.0625</v>
+        <v>45828.0625</v>
       </c>
       <c r="B8">
-        <v>7.682</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>26.582</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45825.07291666666</v>
+        <v>45828.07291666666</v>
       </c>
       <c r="B9">
-        <v>21.438</v>
+        <v>1.578</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45825.08333333334</v>
+        <v>45828.08333333334</v>
       </c>
       <c r="B10">
-        <v>21.775</v>
+        <v>0.375</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>20.245</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45825.09375</v>
+        <v>45828.09375</v>
       </c>
       <c r="B11">
-        <v>13.267</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>32.981</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45825.10416666666</v>
+        <v>45828.10416666666</v>
       </c>
       <c r="B12">
-        <v>19.599</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45825.11458333334</v>
+        <v>45828.11458333334</v>
       </c>
       <c r="B13">
-        <v>34.697</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>50.052</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45825.125</v>
+        <v>45828.125</v>
       </c>
       <c r="B14">
-        <v>34.327</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>9.516999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45825.13541666666</v>
+        <v>45828.13541666666</v>
       </c>
       <c r="B15">
-        <v>20.304</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>12.381</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45825.14583333334</v>
+        <v>45828.14583333334</v>
       </c>
       <c r="B16">
-        <v>35.943</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>22.014</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45825.15625</v>
+        <v>45828.15625</v>
       </c>
       <c r="B17">
-        <v>9.301</v>
+        <v>1.933</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>12.755</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45825.16666666666</v>
+        <v>45828.16666666666</v>
       </c>
       <c r="B18">
-        <v>1.788</v>
+        <v>32.357</v>
       </c>
       <c r="C18">
-        <v>1.235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45825.17708333334</v>
+        <v>45828.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.708</v>
+        <v>2.4</v>
       </c>
       <c r="C19">
-        <v>1.633</v>
+        <v>9.449</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45825.1875</v>
+        <v>45828.1875</v>
       </c>
       <c r="B20">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>4.135</v>
+        <v>43.29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45825.19791666666</v>
+        <v>45828.19791666666</v>
       </c>
       <c r="B21">
-        <v>7.906</v>
+        <v>12.418</v>
       </c>
       <c r="C21">
-        <v>0.267</v>
+        <v>4.165</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45825.20833333334</v>
+        <v>45828.20833333334</v>
       </c>
       <c r="B22">
-        <v>5.255</v>
+        <v>37.803</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -634,222 +634,288 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45825.21875</v>
+        <v>45828.21875</v>
       </c>
       <c r="B23">
-        <v>3.173</v>
+        <v>12.373</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.644</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45825.22916666666</v>
+        <v>45828.22916666666</v>
       </c>
       <c r="B24">
-        <v>7.908</v>
+        <v>4.815</v>
       </c>
       <c r="C24">
-        <v>0.153</v>
+        <v>3.338</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45825.23958333334</v>
+        <v>45828.23958333334</v>
       </c>
       <c r="B25">
-        <v>8.369</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="C25">
-        <v>0.446</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45825.25</v>
+        <v>45828.25</v>
       </c>
       <c r="B26">
-        <v>19.66</v>
+        <v>16.048</v>
       </c>
       <c r="C26">
-        <v>0.019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45825.26041666666</v>
+        <v>45828.26041666666</v>
       </c>
       <c r="B27">
-        <v>2.818</v>
+        <v>26.585</v>
       </c>
       <c r="C27">
-        <v>4.206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45825.27083333334</v>
+        <v>45828.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.229</v>
       </c>
       <c r="C28">
-        <v>8.301</v>
+        <v>5.683</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45825.28125</v>
+        <v>45828.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>10.119</v>
+        <v>10.126</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45825.29166666666</v>
+        <v>45828.29166666666</v>
       </c>
       <c r="B30">
-        <v>15.06</v>
+        <v>11.719</v>
       </c>
       <c r="C30">
-        <v>1.412</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45825.30208333334</v>
+        <v>45828.30208333334</v>
       </c>
       <c r="B31">
-        <v>6.107</v>
+        <v>21.521</v>
       </c>
       <c r="C31">
-        <v>2.326</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45825.3125</v>
+        <v>45828.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1.416</v>
       </c>
       <c r="C32">
-        <v>3.164</v>
+        <v>5.532</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45825.32291666666</v>
+        <v>45828.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.155</v>
+        <v>2.158</v>
       </c>
       <c r="C33">
-        <v>1.079</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45825.33333333334</v>
+        <v>45828.33333333334</v>
       </c>
       <c r="B34">
-        <v>20.104</v>
+        <v>2.332</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>8.907</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45825.34375</v>
+        <v>45828.34375</v>
       </c>
       <c r="B35">
-        <v>0.367</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>8.58</v>
+        <v>7.674</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45825.35416666666</v>
+        <v>45828.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="C36">
-        <v>6.079</v>
+        <v>9.305</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45825.36458333334</v>
+        <v>45828.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>13.236</v>
+        <v>8.778</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45825.375</v>
+        <v>45828.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>8.914</v>
+        <v>49.621</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45825.38541666666</v>
+        <v>45828.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>10.834</v>
+        <v>60.767</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45825.39583333334</v>
+        <v>45828.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>3.232</v>
+        <v>26.779</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45825.40625</v>
+        <v>45828.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.916</v>
+        <v>2.016</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45825.41666666666</v>
+        <v>45828.41666666666</v>
       </c>
       <c r="B42">
-        <v>3.231</v>
+        <v>0.015</v>
       </c>
       <c r="C42">
-        <v>3.497</v>
+        <v>14.557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45828.42708333334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>19.122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45828.4375</v>
+      </c>
+      <c r="B44">
+        <v>1.469</v>
+      </c>
+      <c r="C44">
+        <v>1.726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45828.44791666666</v>
+      </c>
+      <c r="B45">
+        <v>8.16</v>
+      </c>
+      <c r="C45">
+        <v>3.712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45828.45833333334</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45828.46875</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>7.164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45828.47916666666</v>
+      </c>
+      <c r="B48">
+        <v>6.163</v>
+      </c>
+      <c r="C48">
+        <v>0.707</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,519 +403,431 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45828</v>
+        <v>45859</v>
       </c>
       <c r="B2">
-        <v>1.741</v>
+        <v>0.051</v>
       </c>
       <c r="C2">
-        <v>1.894</v>
+        <v>23.877</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45828.01041666666</v>
+        <v>45859.01041666666</v>
       </c>
       <c r="B3">
-        <v>20.577</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>24.149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45828.02083333334</v>
+        <v>45859.02083333334</v>
       </c>
       <c r="B4">
-        <v>19.888</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.006</v>
+        <v>34.899</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45828.03125</v>
+        <v>45859.03125</v>
       </c>
       <c r="B5">
-        <v>11.107</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.005</v>
+        <v>18.882</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45828.04166666666</v>
+        <v>45859.04166666666</v>
       </c>
       <c r="B6">
-        <v>20.861</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>26.851</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45828.05208333334</v>
+        <v>45859.05208333334</v>
       </c>
       <c r="B7">
-        <v>2.288</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>14.984</v>
+        <v>17.738</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45828.0625</v>
+        <v>45859.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>26.582</v>
+        <v>14.032</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45828.07291666666</v>
+        <v>45859.07291666666</v>
       </c>
       <c r="B9">
-        <v>1.578</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45828.08333333334</v>
+        <v>45859.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>20.245</v>
+        <v>41.786</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45828.09375</v>
+        <v>45859.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>32.981</v>
+        <v>25.606</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45828.10416666666</v>
+        <v>45859.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>88.02</v>
+        <v>8.887</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45828.11458333334</v>
+        <v>45859.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>50.052</v>
+        <v>2.219</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45828.125</v>
+        <v>45859.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.516999999999999</v>
+        <v>30.926</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45828.13541666666</v>
+        <v>45859.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.381</v>
+        <v>32.078</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45828.14583333334</v>
+        <v>45859.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>22.014</v>
+        <v>4.498</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45828.15625</v>
+        <v>45859.15625</v>
       </c>
       <c r="B17">
-        <v>1.933</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>12.755</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45828.16666666666</v>
+        <v>45859.16666666666</v>
       </c>
       <c r="B18">
-        <v>32.357</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45828.17708333334</v>
+        <v>45859.17708333334</v>
       </c>
       <c r="B19">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>9.449</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45828.1875</v>
+        <v>45859.1875</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>43.29</v>
+        <v>1.654</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45828.19791666666</v>
+        <v>45859.19791666666</v>
       </c>
       <c r="B21">
-        <v>12.418</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>4.165</v>
+        <v>6.549</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45828.20833333334</v>
+        <v>45859.20833333334</v>
       </c>
       <c r="B22">
-        <v>37.803</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>19.788</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45828.21875</v>
+        <v>45859.21875</v>
       </c>
       <c r="B23">
-        <v>12.373</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1.644</v>
+        <v>21.908</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45828.22916666666</v>
+        <v>45859.22916666666</v>
       </c>
       <c r="B24">
-        <v>4.815</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>3.338</v>
+        <v>25.837</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45828.23958333334</v>
+        <v>45859.23958333334</v>
       </c>
       <c r="B25">
-        <v>8.316000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="C25">
-        <v>0.372</v>
+        <v>10.489</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45828.25</v>
+        <v>45859.25</v>
       </c>
       <c r="B26">
-        <v>16.048</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>30.69</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45828.26041666666</v>
+        <v>45859.26041666666</v>
       </c>
       <c r="B27">
-        <v>26.585</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45828.27083333334</v>
+        <v>45859.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.229</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>5.683</v>
+        <v>19.688</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45828.28125</v>
+        <v>45859.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>10.126</v>
+        <v>46.056</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45828.29166666666</v>
+        <v>45859.29166666666</v>
       </c>
       <c r="B30">
-        <v>11.719</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.617</v>
+        <v>40.267</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45828.30208333334</v>
+        <v>45859.30208333334</v>
       </c>
       <c r="B31">
-        <v>21.521</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.037</v>
+        <v>47.139</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45828.3125</v>
+        <v>45859.3125</v>
       </c>
       <c r="B32">
-        <v>1.416</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>5.532</v>
+        <v>28.497</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45828.32291666666</v>
+        <v>45859.32291666666</v>
       </c>
       <c r="B33">
-        <v>2.158</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>2.7</v>
+        <v>52.398</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45828.33333333334</v>
+        <v>45859.33333333334</v>
       </c>
       <c r="B34">
-        <v>2.332</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>8.907</v>
+        <v>37.104</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45828.34375</v>
+        <v>45859.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>7.674</v>
+        <v>50.603</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45828.35416666666</v>
+        <v>45859.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>9.305</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45828.36458333334</v>
+        <v>45859.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.278</v>
       </c>
       <c r="C37">
-        <v>8.778</v>
+        <v>7.785</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45828.375</v>
+        <v>45859.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.986</v>
       </c>
       <c r="C38">
-        <v>49.621</v>
+        <v>4.334</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45828.38541666666</v>
+        <v>45859.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="C39">
-        <v>60.767</v>
+        <v>7.415</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45828.39583333334</v>
+        <v>45859.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="C40">
-        <v>26.779</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45828.40625</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>2.016</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45828.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>0.015</v>
-      </c>
-      <c r="C42">
-        <v>14.557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45828.42708333334</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>19.122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>45828.4375</v>
-      </c>
-      <c r="B44">
-        <v>1.469</v>
-      </c>
-      <c r="C44">
-        <v>1.726</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>45828.44791666666</v>
-      </c>
-      <c r="B45">
-        <v>8.16</v>
-      </c>
-      <c r="C45">
-        <v>3.712</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>45828.45833333334</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>11.97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>45828.46875</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>7.164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>45828.47916666666</v>
-      </c>
-      <c r="B48">
-        <v>6.163</v>
-      </c>
-      <c r="C48">
-        <v>0.707</v>
+        <v>5.331</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -403,431 +403,431 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B2">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>23.877</v>
+        <v>33.703</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45859.01041666666</v>
+        <v>45863.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>24.149</v>
+        <v>33.569</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45859.02083333334</v>
+        <v>45863.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>34.899</v>
+        <v>28.484</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45859.03125</v>
+        <v>45863.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="C5">
-        <v>18.882</v>
+        <v>12.937</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45859.04166666666</v>
+        <v>45863.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.062</v>
       </c>
       <c r="C6">
-        <v>26.851</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45859.05208333334</v>
+        <v>45863.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.014</v>
       </c>
       <c r="C7">
-        <v>17.738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45859.0625</v>
+        <v>45863.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.477</v>
       </c>
       <c r="C8">
-        <v>14.032</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45859.07291666666</v>
+        <v>45863.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6.375</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45859.08333333334</v>
+        <v>45863.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.184</v>
       </c>
       <c r="C10">
-        <v>41.786</v>
+        <v>1.549</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45859.09375</v>
+        <v>45863.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.386</v>
       </c>
       <c r="C11">
-        <v>25.606</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45859.10416666666</v>
+        <v>45863.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.014</v>
       </c>
       <c r="C12">
-        <v>8.887</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45859.11458333334</v>
+        <v>45863.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6.831</v>
       </c>
       <c r="C13">
-        <v>2.219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45859.125</v>
+        <v>45863.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.664</v>
       </c>
       <c r="C14">
-        <v>30.926</v>
+        <v>1.799</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45859.13541666666</v>
+        <v>45863.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.836</v>
       </c>
       <c r="C15">
-        <v>32.078</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45859.14583333334</v>
+        <v>45863.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.357</v>
       </c>
       <c r="C16">
-        <v>4.498</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45859.15625</v>
+        <v>45863.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C17">
-        <v>0.223</v>
+        <v>8.218999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45859.16666666666</v>
+        <v>45863.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="C18">
-        <v>0.206</v>
+        <v>2.927</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45859.17708333334</v>
+        <v>45863.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>11.876</v>
       </c>
       <c r="C19">
-        <v>0.92</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45859.1875</v>
+        <v>45863.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>9.153</v>
       </c>
       <c r="C20">
-        <v>1.654</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45859.19791666666</v>
+        <v>45863.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>15.631</v>
       </c>
       <c r="C21">
-        <v>6.549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45859.20833333334</v>
+        <v>45863.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="C22">
-        <v>19.788</v>
+        <v>9.175000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45859.21875</v>
+        <v>45863.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="C23">
-        <v>21.908</v>
+        <v>3.131</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45859.22916666666</v>
+        <v>45863.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.395</v>
       </c>
       <c r="C24">
-        <v>25.837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45859.23958333334</v>
+        <v>45863.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.035</v>
+        <v>1.359</v>
       </c>
       <c r="C25">
-        <v>10.489</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45859.25</v>
+        <v>45863.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1.984</v>
       </c>
       <c r="C26">
-        <v>30.69</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45859.26041666666</v>
+        <v>45863.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3.184</v>
       </c>
       <c r="C27">
-        <v>21.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45859.27083333334</v>
+        <v>45863.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="C28">
-        <v>19.688</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45859.28125</v>
+        <v>45863.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.436</v>
       </c>
       <c r="C29">
-        <v>46.056</v>
+        <v>1.518</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45859.29166666666</v>
+        <v>45863.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4.417</v>
       </c>
       <c r="C30">
-        <v>40.267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45859.30208333334</v>
+        <v>45863.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3.786</v>
       </c>
       <c r="C31">
-        <v>47.139</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45859.3125</v>
+        <v>45863.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="C32">
-        <v>28.497</v>
+        <v>6.827</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45859.32291666666</v>
+        <v>45863.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>52.398</v>
+        <v>24.248</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45859.33333333334</v>
+        <v>45863.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>68.098</v>
       </c>
       <c r="C34">
-        <v>37.104</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45859.34375</v>
+        <v>45863.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>41.793</v>
       </c>
       <c r="C35">
-        <v>50.603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45859.35416666666</v>
+        <v>45863.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>24.138</v>
       </c>
       <c r="C36">
-        <v>10.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45859.36458333334</v>
+        <v>45863.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.278</v>
+        <v>4.84</v>
       </c>
       <c r="C37">
-        <v>7.785</v>
+        <v>1.409</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45859.375</v>
+        <v>45863.375</v>
       </c>
       <c r="B38">
-        <v>0.986</v>
+        <v>22.69</v>
       </c>
       <c r="C38">
-        <v>4.334</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45859.38541666666</v>
+        <v>45863.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.051</v>
+        <v>33.201</v>
       </c>
       <c r="C39">
-        <v>7.415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45859.39583333334</v>
+        <v>45863.39583333334</v>
       </c>
       <c r="B40">
-        <v>0.241</v>
+        <v>40.641</v>
       </c>
       <c r="C40">
-        <v>5.331</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,65 +403,65 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45863</v>
+        <v>45875</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.865</v>
       </c>
       <c r="C2">
-        <v>33.703</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45863.01041666666</v>
+        <v>45875.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.503</v>
       </c>
       <c r="C3">
-        <v>33.569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45863.02083333334</v>
+        <v>45875.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>18.054</v>
       </c>
       <c r="C4">
-        <v>28.484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45863.03125</v>
+        <v>45875.03125</v>
       </c>
       <c r="B5">
-        <v>0.029</v>
+        <v>2.054</v>
       </c>
       <c r="C5">
-        <v>12.937</v>
+        <v>1.358</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45863.04166666666</v>
+        <v>45875.04166666666</v>
       </c>
       <c r="B6">
-        <v>1.062</v>
+        <v>0.383</v>
       </c>
       <c r="C6">
-        <v>0.101</v>
+        <v>3.341</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45863.05208333334</v>
+        <v>45875.05208333334</v>
       </c>
       <c r="B7">
-        <v>2.014</v>
+        <v>2.825</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -469,65 +469,65 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45863.0625</v>
+        <v>45875.0625</v>
       </c>
       <c r="B8">
-        <v>3.477</v>
+        <v>7.83</v>
       </c>
       <c r="C8">
-        <v>0.089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45863.07291666666</v>
+        <v>45875.07291666666</v>
       </c>
       <c r="B9">
-        <v>6.375</v>
+        <v>12.892</v>
       </c>
       <c r="C9">
-        <v>1.43</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45863.08333333334</v>
+        <v>45875.08333333334</v>
       </c>
       <c r="B10">
-        <v>1.184</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.549</v>
+        <v>39.458</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45863.09375</v>
+        <v>45875.09375</v>
       </c>
       <c r="B11">
-        <v>0.386</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.398</v>
+        <v>22.318</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45863.10416666666</v>
+        <v>45875.10416666666</v>
       </c>
       <c r="B12">
-        <v>1.014</v>
+        <v>14.944</v>
       </c>
       <c r="C12">
-        <v>0.532</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45863.11458333334</v>
+        <v>45875.11458333334</v>
       </c>
       <c r="B13">
-        <v>6.831</v>
+        <v>15.466</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -535,87 +535,87 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45863.125</v>
+        <v>45875.125</v>
       </c>
       <c r="B14">
-        <v>2.664</v>
+        <v>10.784</v>
       </c>
       <c r="C14">
-        <v>1.799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45863.13541666666</v>
+        <v>45875.13541666666</v>
       </c>
       <c r="B15">
-        <v>1.836</v>
+        <v>5.423</v>
       </c>
       <c r="C15">
-        <v>0.391</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45863.14583333334</v>
+        <v>45875.14583333334</v>
       </c>
       <c r="B16">
-        <v>2.357</v>
+        <v>9.15</v>
       </c>
       <c r="C16">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45863.15625</v>
+        <v>45875.15625</v>
       </c>
       <c r="B17">
-        <v>0.002</v>
+        <v>6.704</v>
       </c>
       <c r="C17">
-        <v>8.218999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45863.16666666666</v>
+        <v>45875.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.051</v>
+        <v>8.207000000000001</v>
       </c>
       <c r="C18">
-        <v>2.927</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45863.17708333334</v>
+        <v>45875.17708333334</v>
       </c>
       <c r="B19">
-        <v>11.876</v>
+        <v>9.465999999999999</v>
       </c>
       <c r="C19">
-        <v>0.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45863.1875</v>
+        <v>45875.1875</v>
       </c>
       <c r="B20">
-        <v>9.153</v>
+        <v>11.868</v>
       </c>
       <c r="C20">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45863.19791666666</v>
+        <v>45875.19791666666</v>
       </c>
       <c r="B21">
-        <v>15.631</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -623,211 +623,90 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45863.20833333334</v>
+        <v>45875.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.212</v>
+        <v>2.623</v>
       </c>
       <c r="C22">
-        <v>9.175000000000001</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45863.21875</v>
+        <v>45875.21875</v>
       </c>
       <c r="B23">
-        <v>0.163</v>
+        <v>0.292</v>
       </c>
       <c r="C23">
-        <v>3.131</v>
+        <v>10.872</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45863.22916666666</v>
+        <v>45875.22916666666</v>
       </c>
       <c r="B24">
-        <v>1.395</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45863.23958333334</v>
+        <v>45875.23958333334</v>
       </c>
       <c r="B25">
-        <v>1.359</v>
+        <v>1.173</v>
       </c>
       <c r="C25">
-        <v>0.024</v>
+        <v>1.216</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45863.25</v>
+        <v>45875.25</v>
       </c>
       <c r="B26">
-        <v>1.984</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>5.14</v>
+        <v>17.165</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45863.26041666666</v>
+        <v>45875.26041666666</v>
       </c>
       <c r="B27">
-        <v>3.184</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>6.044</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45863.27083333334</v>
+        <v>45875.27083333334</v>
       </c>
       <c r="B28">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.047</v>
+        <v>24.932</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45863.28125</v>
+        <v>45875.28125</v>
       </c>
       <c r="B29">
-        <v>0.436</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1.518</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>45863.29166666666</v>
-      </c>
-      <c r="B30">
-        <v>4.417</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>45863.30208333334</v>
-      </c>
-      <c r="B31">
-        <v>3.786</v>
-      </c>
-      <c r="C31">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45863.3125</v>
-      </c>
-      <c r="B32">
-        <v>0.025</v>
-      </c>
-      <c r="C32">
-        <v>6.827</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45863.32291666666</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>24.248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45863.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>68.098</v>
-      </c>
-      <c r="C34">
-        <v>0.096</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45863.34375</v>
-      </c>
-      <c r="B35">
-        <v>41.793</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45863.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>24.138</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45863.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>4.84</v>
-      </c>
-      <c r="C37">
-        <v>1.409</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45863.375</v>
-      </c>
-      <c r="B38">
-        <v>22.69</v>
-      </c>
-      <c r="C38">
-        <v>0.344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45863.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>33.201</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45863.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>40.641</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
+        <v>23.592</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,164 +403,164 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45875</v>
+        <v>45889</v>
       </c>
       <c r="B2">
-        <v>0.865</v>
+        <v>0.242</v>
       </c>
       <c r="C2">
-        <v>0.001</v>
+        <v>18.302</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45875.01041666666</v>
+        <v>45889.01041666666</v>
       </c>
       <c r="B3">
-        <v>6.503</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>28.622</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45875.02083333334</v>
+        <v>45889.02083333334</v>
       </c>
       <c r="B4">
-        <v>18.054</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>36.249</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45875.03125</v>
+        <v>45889.03125</v>
       </c>
       <c r="B5">
-        <v>2.054</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.358</v>
+        <v>24.025</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45875.04166666666</v>
+        <v>45889.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.383</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.341</v>
+        <v>55.354</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45875.05208333334</v>
+        <v>45889.05208333334</v>
       </c>
       <c r="B7">
-        <v>2.825</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>60.823</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45875.0625</v>
+        <v>45889.0625</v>
       </c>
       <c r="B8">
-        <v>7.83</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>70.39700000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45875.07291666666</v>
+        <v>45889.07291666666</v>
       </c>
       <c r="B9">
-        <v>12.892</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.225</v>
+        <v>52.023</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45875.08333333334</v>
+        <v>45889.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>39.458</v>
+        <v>21.686</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45875.09375</v>
+        <v>45889.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>22.318</v>
+        <v>12.902</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45875.10416666666</v>
+        <v>45889.10416666666</v>
       </c>
       <c r="B12">
-        <v>14.944</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.606</v>
+        <v>10.701</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45875.11458333334</v>
+        <v>45889.11458333334</v>
       </c>
       <c r="B13">
-        <v>15.466</v>
+        <v>0.02</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>14.472</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45875.125</v>
+        <v>45889.125</v>
       </c>
       <c r="B14">
-        <v>10.784</v>
+        <v>2.201</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45875.13541666666</v>
+        <v>45889.13541666666</v>
       </c>
       <c r="B15">
-        <v>5.423</v>
+        <v>5.534</v>
       </c>
       <c r="C15">
-        <v>0.047</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45875.14583333334</v>
+        <v>45889.14583333334</v>
       </c>
       <c r="B16">
-        <v>9.15</v>
+        <v>13.691</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45875.15625</v>
+        <v>45889.15625</v>
       </c>
       <c r="B17">
-        <v>6.704</v>
+        <v>19.063</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -579,134 +579,288 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45875.16666666666</v>
+        <v>45889.16666666666</v>
       </c>
       <c r="B18">
-        <v>8.207000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="C18">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45875.17708333334</v>
+        <v>45889.17708333334</v>
       </c>
       <c r="B19">
-        <v>9.465999999999999</v>
+        <v>2.424</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>4.863</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45875.1875</v>
+        <v>45889.1875</v>
       </c>
       <c r="B20">
-        <v>11.868</v>
+        <v>0.305</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3.195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45875.19791666666</v>
+        <v>45889.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.9360000000000001</v>
+        <v>0.164</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.165</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45875.20833333334</v>
+        <v>45889.20833333334</v>
       </c>
       <c r="B22">
-        <v>2.623</v>
+        <v>0.049</v>
       </c>
       <c r="C22">
-        <v>0.966</v>
+        <v>3.517</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45875.21875</v>
+        <v>45889.21875</v>
       </c>
       <c r="B23">
-        <v>0.292</v>
+        <v>0.352</v>
       </c>
       <c r="C23">
-        <v>10.872</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45875.22916666666</v>
+        <v>45889.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="C24">
-        <v>6.69</v>
+        <v>5.013</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45875.23958333334</v>
+        <v>45889.23958333334</v>
       </c>
       <c r="B25">
-        <v>1.173</v>
+        <v>0.005</v>
       </c>
       <c r="C25">
-        <v>1.216</v>
+        <v>10.355</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45875.25</v>
+        <v>45889.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>17.165</v>
+        <v>20.577</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45875.26041666666</v>
+        <v>45889.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>6.044</v>
+        <v>24.493</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45875.27083333334</v>
+        <v>45889.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>24.932</v>
+        <v>22.957</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45875.28125</v>
+        <v>45889.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>23.592</v>
+        <v>37.779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45889.29166666666</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45889.30208333334</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>19.975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45889.3125</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45889.32291666666</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>29.869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45889.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>0.004</v>
+      </c>
+      <c r="C34">
+        <v>14.529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45889.34375</v>
+      </c>
+      <c r="B35">
+        <v>0.021</v>
+      </c>
+      <c r="C35">
+        <v>8.965999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45889.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C36">
+        <v>8.423999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45889.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>38.742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45889.375</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>23.279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45889.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>0.223</v>
+      </c>
+      <c r="C39">
+        <v>6.356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45889.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>1.574</v>
+      </c>
+      <c r="C40">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45889.40625</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>6.026</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45889.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>21.595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45889.42708333334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>27.518</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,164 +403,164 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B2">
-        <v>0.242</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C2">
-        <v>18.302</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45889.01041666666</v>
+        <v>45890.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>18.067</v>
       </c>
       <c r="C3">
-        <v>28.622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45889.02083333334</v>
+        <v>45890.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="C4">
-        <v>36.249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45889.03125</v>
+        <v>45890.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.889</v>
       </c>
       <c r="C5">
-        <v>24.025</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45889.04166666666</v>
+        <v>45890.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.676</v>
       </c>
       <c r="C6">
-        <v>55.354</v>
+        <v>1.479</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45889.05208333334</v>
+        <v>45890.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8.225</v>
       </c>
       <c r="C7">
-        <v>60.823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45889.0625</v>
+        <v>45890.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>11.659</v>
       </c>
       <c r="C8">
-        <v>70.39700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45889.07291666666</v>
+        <v>45890.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15.023</v>
       </c>
       <c r="C9">
-        <v>52.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45889.08333333334</v>
+        <v>45890.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="C10">
-        <v>21.686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45889.09375</v>
+        <v>45890.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>9.249000000000001</v>
       </c>
       <c r="C11">
-        <v>12.902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45889.10416666666</v>
+        <v>45890.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>14.138</v>
       </c>
       <c r="C12">
-        <v>10.701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45889.11458333334</v>
+        <v>45890.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>11.272</v>
       </c>
       <c r="C13">
-        <v>14.472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45889.125</v>
+        <v>45890.125</v>
       </c>
       <c r="B14">
-        <v>2.201</v>
+        <v>19.01</v>
       </c>
       <c r="C14">
-        <v>0.386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45889.13541666666</v>
+        <v>45890.13541666666</v>
       </c>
       <c r="B15">
-        <v>5.534</v>
+        <v>6.605</v>
       </c>
       <c r="C15">
-        <v>0.019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45889.14583333334</v>
+        <v>45890.14583333334</v>
       </c>
       <c r="B16">
-        <v>13.691</v>
+        <v>8.164999999999999</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45889.15625</v>
+        <v>45890.15625</v>
       </c>
       <c r="B17">
-        <v>19.063</v>
+        <v>5.749</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -579,288 +579,266 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45889.16666666666</v>
+        <v>45890.16666666666</v>
       </c>
       <c r="B18">
-        <v>14.3</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45889.17708333334</v>
+        <v>45890.17708333334</v>
       </c>
       <c r="B19">
-        <v>2.424</v>
+        <v>0.164</v>
       </c>
       <c r="C19">
-        <v>4.863</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45889.1875</v>
+        <v>45890.1875</v>
       </c>
       <c r="B20">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>3.195</v>
+        <v>10.436</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45889.19791666666</v>
+        <v>45890.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.164</v>
+        <v>0.408</v>
       </c>
       <c r="C21">
-        <v>2.165</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45889.20833333334</v>
+        <v>45890.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.049</v>
+        <v>0.226</v>
       </c>
       <c r="C22">
-        <v>3.517</v>
+        <v>5.963</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45889.21875</v>
+        <v>45890.21875</v>
       </c>
       <c r="B23">
-        <v>0.352</v>
+        <v>0.26</v>
       </c>
       <c r="C23">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45889.22916666666</v>
+        <v>45890.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.061</v>
+        <v>0.607</v>
       </c>
       <c r="C24">
-        <v>5.013</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45889.23958333334</v>
+        <v>45890.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.005</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C25">
-        <v>10.355</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45889.25</v>
+        <v>45890.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>8.904999999999999</v>
       </c>
       <c r="C26">
-        <v>20.577</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45889.26041666666</v>
+        <v>45890.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>5.483</v>
       </c>
       <c r="C27">
-        <v>24.493</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45889.27083333334</v>
+        <v>45890.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2.083</v>
       </c>
       <c r="C28">
-        <v>22.957</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45889.28125</v>
+        <v>45890.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>10.778</v>
       </c>
       <c r="C29">
-        <v>37.779</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45889.29166666666</v>
+        <v>45890.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3.548</v>
       </c>
       <c r="C30">
-        <v>11.97</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45889.30208333334</v>
+        <v>45890.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="C31">
-        <v>19.975</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45889.3125</v>
+        <v>45890.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>9.824</v>
       </c>
       <c r="C32">
-        <v>11.09</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45889.32291666666</v>
+        <v>45890.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C33">
-        <v>29.869</v>
+        <v>12.754</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45889.33333333334</v>
+        <v>45890.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.004</v>
+        <v>6.006</v>
       </c>
       <c r="C34">
-        <v>14.529</v>
+        <v>6.814</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45889.34375</v>
+        <v>45890.34375</v>
       </c>
       <c r="B35">
-        <v>0.021</v>
+        <v>11.335</v>
       </c>
       <c r="C35">
-        <v>8.965999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45889.35416666666</v>
+        <v>45890.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.5669999999999999</v>
+        <v>14.689</v>
       </c>
       <c r="C36">
-        <v>8.423999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45889.36458333334</v>
+        <v>45890.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1.621</v>
       </c>
       <c r="C37">
-        <v>38.742</v>
+        <v>1.315</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45889.375</v>
+        <v>45890.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>33.867</v>
       </c>
       <c r="C38">
-        <v>23.279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45889.38541666666</v>
+        <v>45890.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.223</v>
+        <v>36.845</v>
       </c>
       <c r="C39">
-        <v>6.356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45889.39583333334</v>
+        <v>45890.39583333334</v>
       </c>
       <c r="B40">
-        <v>1.574</v>
+        <v>39.953</v>
       </c>
       <c r="C40">
-        <v>1.143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45889.40625</v>
+        <v>45890.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>14.36</v>
       </c>
       <c r="C41">
-        <v>6.026</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45889.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>21.595</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45889.42708333334</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>27.518</v>
+        <v>0.021</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,442 +403,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B2">
-        <v>8.609999999999999</v>
+        <v>1.325</v>
       </c>
       <c r="C2">
-        <v>0.157</v>
+        <v>8.528</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B3">
-        <v>18.067</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>18.199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B4">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>15.359</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B5">
-        <v>5.889</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.155</v>
+        <v>15.913</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.676</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.479</v>
+        <v>19.142</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B7">
-        <v>8.225</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4.485</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B8">
-        <v>11.659</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4.599</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B9">
-        <v>15.023</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>7.912</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B10">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>9.766</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B11">
-        <v>9.249000000000001</v>
+        <v>0.527</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.088</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B12">
-        <v>14.138</v>
+        <v>0.105</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B13">
-        <v>11.272</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B14">
-        <v>19.01</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.061</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B15">
-        <v>6.605</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>6.619</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B16">
-        <v>8.164999999999999</v>
+        <v>2.712</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B17">
-        <v>5.749</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5.307</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.8139999999999999</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.489</v>
+        <v>10.716</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.164</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C19">
-        <v>3.46</v>
+        <v>8.914999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.035</v>
       </c>
       <c r="C20">
-        <v>10.436</v>
+        <v>4.013</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.408</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C21">
-        <v>2.51</v>
+        <v>5.424</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>5.963</v>
+        <v>31.023</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B23">
-        <v>0.26</v>
+        <v>0.005</v>
       </c>
       <c r="C23">
-        <v>2.21</v>
+        <v>14.424</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.607</v>
+        <v>3.171</v>
       </c>
       <c r="C24">
-        <v>0.802</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B25">
-        <v>8.199999999999999</v>
+        <v>1.638</v>
       </c>
       <c r="C25">
-        <v>0.008999999999999999</v>
+        <v>4.658</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B26">
-        <v>8.904999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="C26">
-        <v>0.038</v>
+        <v>3.182</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B27">
-        <v>5.483</v>
+        <v>5.116</v>
       </c>
       <c r="C27">
-        <v>0.008999999999999999</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B28">
-        <v>2.083</v>
+        <v>1.689</v>
       </c>
       <c r="C28">
-        <v>0.358</v>
+        <v>1.813</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B29">
-        <v>10.778</v>
+        <v>3.851</v>
       </c>
       <c r="C29">
-        <v>0.014</v>
+        <v>2.711</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B30">
-        <v>3.548</v>
+        <v>11.82</v>
       </c>
       <c r="C30">
-        <v>0.9340000000000001</v>
+        <v>3.572</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.574</v>
+        <v>0.001</v>
       </c>
       <c r="C31">
-        <v>0.8149999999999999</v>
+        <v>10.589</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B32">
-        <v>9.824</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.011</v>
+        <v>5.315</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>12.754</v>
+        <v>5.804</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B34">
-        <v>6.006</v>
+        <v>0.301</v>
       </c>
       <c r="C34">
-        <v>6.814</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B35">
-        <v>11.335</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>9.817</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B36">
-        <v>14.689</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4.439</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B37">
-        <v>1.621</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1.315</v>
+        <v>12.629</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B38">
-        <v>33.867</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>37.007</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B39">
-        <v>36.845</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B40">
-        <v>39.953</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>9.457000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B41">
-        <v>14.36</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.021</v>
+        <v>1.739</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45918.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>4.112</v>
+      </c>
+      <c r="C42">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45918.42708333334</v>
+      </c>
+      <c r="B43">
+        <v>0.079</v>
+      </c>
+      <c r="C43">
+        <v>5.33</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,464 +403,453 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B2">
-        <v>1.325</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.528</v>
+        <v>36.348</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>18.199</v>
+        <v>20.838</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>15.359</v>
+        <v>4.661</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>15.913</v>
+        <v>4.753</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19.142</v>
+        <v>36.567</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.485</v>
+        <v>4.865</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.599</v>
+        <v>4.085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.912</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.766</v>
+        <v>4.714</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B11">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.088</v>
+        <v>2.165</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.275</v>
+        <v>1.711</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.26</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.061</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="C15">
-        <v>6.619</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B16">
-        <v>2.712</v>
+        <v>1.622</v>
       </c>
       <c r="C16">
-        <v>0.548</v>
+        <v>2.447</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.223</v>
       </c>
       <c r="C17">
-        <v>5.307</v>
+        <v>1.975</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.716</v>
+        <v>1.592</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>8.914999999999999</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B20">
-        <v>1.035</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>4.013</v>
+        <v>5.011</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.6919999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="C21">
-        <v>5.424</v>
+        <v>8.311</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>31.023</v>
+        <v>3.014</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B23">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>14.424</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B24">
-        <v>3.171</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.072</v>
+        <v>13.804</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B25">
-        <v>1.638</v>
+        <v>1.149</v>
       </c>
       <c r="C25">
-        <v>4.658</v>
+        <v>4.554</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B26">
-        <v>0.17</v>
+        <v>0.006</v>
       </c>
       <c r="C26">
-        <v>3.182</v>
+        <v>6.841</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B27">
-        <v>5.116</v>
+        <v>0.001</v>
       </c>
       <c r="C27">
-        <v>0.108</v>
+        <v>5.123</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B28">
-        <v>1.689</v>
+        <v>0.001</v>
       </c>
       <c r="C28">
-        <v>1.813</v>
+        <v>14.975</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B29">
-        <v>3.851</v>
+        <v>1.225</v>
       </c>
       <c r="C29">
-        <v>2.711</v>
+        <v>10.858</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B30">
-        <v>11.82</v>
+        <v>12.994</v>
       </c>
       <c r="C30">
-        <v>3.572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.001</v>
+        <v>23.054</v>
       </c>
       <c r="C31">
-        <v>10.589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>15.669</v>
       </c>
       <c r="C32">
-        <v>5.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>14.885</v>
       </c>
       <c r="C33">
-        <v>5.804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.301</v>
+        <v>19.995</v>
       </c>
       <c r="C34">
-        <v>9.470000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>52.76</v>
       </c>
       <c r="C35">
-        <v>9.817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>56.14</v>
       </c>
       <c r="C36">
-        <v>4.439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>26.283</v>
       </c>
       <c r="C37">
-        <v>12.629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>22.169</v>
       </c>
       <c r="C38">
-        <v>37.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>11.41</v>
       </c>
       <c r="C39">
-        <v>23.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4.369</v>
       </c>
       <c r="C40">
-        <v>9.457000000000001</v>
+        <v>3.424</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1.739</v>
+        <v>26.476</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
       <c r="B42">
-        <v>4.112</v>
+        <v>0.296</v>
       </c>
       <c r="C42">
-        <v>0.452</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45918.42708333334</v>
-      </c>
-      <c r="B43">
-        <v>0.079</v>
-      </c>
-      <c r="C43">
-        <v>5.33</v>
+        <v>6.956</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,453 +403,310 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10.365</v>
       </c>
       <c r="C2">
-        <v>36.348</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>27.322</v>
       </c>
       <c r="C3">
-        <v>20.838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>29.356</v>
       </c>
       <c r="C4">
-        <v>4.661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>22.337</v>
       </c>
       <c r="C5">
-        <v>4.753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6.487</v>
       </c>
       <c r="C6">
-        <v>36.567</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>15.016</v>
       </c>
       <c r="C7">
-        <v>4.865</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>15.059</v>
       </c>
       <c r="C8">
-        <v>4.085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7.71</v>
       </c>
       <c r="C9">
-        <v>2.98</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.738</v>
       </c>
       <c r="C10">
-        <v>4.714</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.464</v>
       </c>
       <c r="C11">
-        <v>2.165</v>
+        <v>4.228</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="C12">
-        <v>1.711</v>
+        <v>1.049</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3.885</v>
       </c>
       <c r="C13">
-        <v>0.8129999999999999</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.566</v>
       </c>
       <c r="C14">
-        <v>0.216</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.008</v>
+        <v>13.783</v>
       </c>
       <c r="C15">
-        <v>0.437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B16">
-        <v>1.622</v>
+        <v>36.378</v>
       </c>
       <c r="C16">
-        <v>2.447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B17">
-        <v>2.223</v>
+        <v>12.307</v>
       </c>
       <c r="C17">
-        <v>1.975</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5.717</v>
       </c>
       <c r="C18">
-        <v>1.592</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5.318</v>
       </c>
       <c r="C19">
-        <v>0.904</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>20.199</v>
       </c>
       <c r="C20">
-        <v>5.011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.018</v>
+        <v>11.381</v>
       </c>
       <c r="C21">
-        <v>8.311</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2.359</v>
       </c>
       <c r="C22">
-        <v>3.014</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="C23">
-        <v>3.25</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.917</v>
       </c>
       <c r="C24">
-        <v>13.804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B25">
-        <v>1.149</v>
+        <v>7.482</v>
       </c>
       <c r="C25">
-        <v>4.554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B26">
-        <v>0.006</v>
+        <v>0.738</v>
       </c>
       <c r="C26">
-        <v>6.841</v>
+        <v>2.567</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.001</v>
+        <v>1.362</v>
       </c>
       <c r="C27">
-        <v>5.123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.001</v>
+        <v>2.887</v>
       </c>
       <c r="C28">
-        <v>14.975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B29">
-        <v>1.225</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C29">
-        <v>10.858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>45919.29166666666</v>
-      </c>
-      <c r="B30">
-        <v>12.994</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>45919.30208333334</v>
-      </c>
-      <c r="B31">
-        <v>23.054</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45919.3125</v>
-      </c>
-      <c r="B32">
-        <v>15.669</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45919.32291666666</v>
-      </c>
-      <c r="B33">
-        <v>14.885</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45919.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>19.995</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45919.34375</v>
-      </c>
-      <c r="B35">
-        <v>52.76</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45919.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>56.14</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45919.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>26.283</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45919.375</v>
-      </c>
-      <c r="B38">
-        <v>22.169</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45919.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>11.41</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45919.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>4.369</v>
-      </c>
-      <c r="C40">
-        <v>3.424</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45919.40625</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>26.476</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45919.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>0.296</v>
-      </c>
-      <c r="C42">
-        <v>6.956</v>
+        <v>4.542</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,310 +403,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45923</v>
+        <v>45931</v>
       </c>
       <c r="B2">
-        <v>10.365</v>
+        <v>2.245</v>
       </c>
       <c r="C2">
-        <v>0.051</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45923.01041666666</v>
+        <v>45931.01041666666</v>
       </c>
       <c r="B3">
-        <v>27.322</v>
+        <v>8.002000000000001</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45923.02083333334</v>
+        <v>45931.02083333334</v>
       </c>
       <c r="B4">
-        <v>29.356</v>
+        <v>1.875</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10.041</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45923.03125</v>
+        <v>45931.03125</v>
       </c>
       <c r="B5">
-        <v>22.337</v>
+        <v>5.481</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.593</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45923.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B6">
-        <v>6.487</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C6">
-        <v>0.144</v>
+        <v>13.576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45923.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B7">
-        <v>15.016</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.438</v>
+        <v>17.309</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45923.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B8">
-        <v>15.059</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>14.541</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45923.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B9">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.045</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45923.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B10">
-        <v>2.738</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.635</v>
+        <v>22.491</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45923.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B11">
-        <v>0.464</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.228</v>
+        <v>11.023</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45923.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B12">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.049</v>
+        <v>15.427</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45923.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B13">
-        <v>3.885</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.288</v>
+        <v>16.463</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45923.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B14">
-        <v>4.566</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.649</v>
+        <v>22.727</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45923.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B15">
-        <v>13.783</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>13.189</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45923.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B16">
-        <v>36.378</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>23.344</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45923.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B17">
-        <v>12.307</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.047</v>
+        <v>19.185</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45923.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B18">
-        <v>5.717</v>
+        <v>2.584</v>
       </c>
       <c r="C18">
-        <v>0.019</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45923.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B19">
-        <v>5.318</v>
+        <v>3.65</v>
       </c>
       <c r="C19">
-        <v>0.145</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45923.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B20">
-        <v>20.199</v>
+        <v>0.297</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45923.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B21">
-        <v>11.381</v>
+        <v>1.437</v>
       </c>
       <c r="C21">
-        <v>0.002</v>
+        <v>2.276</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45923.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B22">
-        <v>2.359</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.113</v>
+        <v>26.605</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45923.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B23">
-        <v>4.97</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.037</v>
+        <v>30.381</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45923.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B24">
-        <v>5.917</v>
+        <v>0.028</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>17.784</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45923.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B25">
-        <v>7.482</v>
+        <v>0.211</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5.765</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45923.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B26">
-        <v>0.738</v>
+        <v>0.042</v>
       </c>
       <c r="C26">
-        <v>2.567</v>
+        <v>17.331</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45923.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B27">
-        <v>1.362</v>
+        <v>0.06</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45923.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B28">
-        <v>2.887</v>
+        <v>0.149</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5.902</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45923.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B29">
-        <v>0.5659999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="C29">
-        <v>4.542</v>
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45931.29166666666</v>
+      </c>
+      <c r="B30">
+        <v>0.443</v>
+      </c>
+      <c r="C30">
+        <v>2.188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45931.30208333334</v>
+      </c>
+      <c r="B31">
+        <v>0.255</v>
+      </c>
+      <c r="C31">
+        <v>5.102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45931.3125</v>
+      </c>
+      <c r="B32">
+        <v>1.489</v>
+      </c>
+      <c r="C32">
+        <v>7.201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45931.32291666666</v>
+      </c>
+      <c r="B33">
+        <v>0.004</v>
+      </c>
+      <c r="C33">
+        <v>16.089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45931.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>6.073</v>
+      </c>
+      <c r="C34">
+        <v>8.074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45931.34375</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>18.616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45931.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>0.13</v>
+      </c>
+      <c r="C36">
+        <v>2.751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45931.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1.504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45931.375</v>
+      </c>
+      <c r="B38">
+        <v>2.861</v>
+      </c>
+      <c r="C38">
+        <v>1.626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45931.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>6.351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45931.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>0.076</v>
+      </c>
+      <c r="C40">
+        <v>2.401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45931.40625</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>14.783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45931.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45931.42708333334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>17.146</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,464 +403,497 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45931</v>
+        <v>45944</v>
       </c>
       <c r="B2">
-        <v>2.245</v>
+        <v>1.613</v>
       </c>
       <c r="C2">
-        <v>0.699</v>
+        <v>5.582</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45931.01041666666</v>
+        <v>45944.01041666666</v>
       </c>
       <c r="B3">
-        <v>8.002000000000001</v>
+        <v>9.273</v>
       </c>
       <c r="C3">
-        <v>0.124</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45931.02083333334</v>
+        <v>45944.02083333334</v>
       </c>
       <c r="B4">
-        <v>1.875</v>
+        <v>0.875</v>
       </c>
       <c r="C4">
-        <v>10.041</v>
+        <v>5.934</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45931.03125</v>
+        <v>45944.03125</v>
       </c>
       <c r="B5">
-        <v>5.481</v>
+        <v>2.297</v>
       </c>
       <c r="C5">
-        <v>1.593</v>
+        <v>3.881</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.08500000000000001</v>
+        <v>3.174</v>
       </c>
       <c r="C6">
-        <v>13.576</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6.307</v>
       </c>
       <c r="C7">
-        <v>17.309</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="C8">
-        <v>14.541</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.628</v>
       </c>
       <c r="C9">
-        <v>21.32</v>
+        <v>4.611</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.235</v>
       </c>
       <c r="C10">
-        <v>22.491</v>
+        <v>1.354</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.023</v>
+        <v>13.796</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.742</v>
       </c>
       <c r="C12">
-        <v>15.427</v>
+        <v>5.616</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.598</v>
       </c>
       <c r="C13">
-        <v>16.463</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.572</v>
       </c>
       <c r="C14">
-        <v>22.727</v>
+        <v>4.455</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.189</v>
+        <v>14.954</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>23.344</v>
+        <v>12.306</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>19.185</v>
+        <v>14.513</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B18">
-        <v>2.584</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.458</v>
+        <v>1.754</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B19">
-        <v>3.65</v>
+        <v>0.195</v>
       </c>
       <c r="C19">
-        <v>0.26</v>
+        <v>1.112</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B20">
-        <v>0.297</v>
+        <v>0.076</v>
       </c>
       <c r="C20">
-        <v>0.604</v>
+        <v>1.607</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B21">
-        <v>1.437</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.276</v>
+        <v>2.564</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>26.605</v>
+        <v>22.897</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="C23">
-        <v>30.381</v>
+        <v>8.913</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.028</v>
+        <v>0.894</v>
       </c>
       <c r="C24">
-        <v>17.784</v>
+        <v>5.072</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.211</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="C25">
-        <v>5.765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B26">
-        <v>0.042</v>
+        <v>4.336</v>
       </c>
       <c r="C26">
-        <v>17.331</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.06</v>
+        <v>5.706</v>
       </c>
       <c r="C27">
-        <v>9.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.149</v>
+        <v>6.249</v>
       </c>
       <c r="C28">
-        <v>5.902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B29">
-        <v>0.18</v>
+        <v>12.104</v>
       </c>
       <c r="C29">
-        <v>5.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.443</v>
+        <v>1.099</v>
       </c>
       <c r="C30">
-        <v>2.188</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>5.102</v>
+        <v>9.195</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B32">
-        <v>1.489</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>7.201</v>
+        <v>17.105</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>16.089</v>
+        <v>32.792</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B34">
-        <v>6.073</v>
+        <v>1.203</v>
       </c>
       <c r="C34">
-        <v>8.074</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="C35">
-        <v>18.616</v>
+        <v>7.036</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>2.751</v>
+        <v>24.745</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.504</v>
+        <v>8.907</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B38">
-        <v>2.861</v>
+        <v>0.122</v>
       </c>
       <c r="C38">
-        <v>1.626</v>
+        <v>9.119</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C39">
-        <v>6.351</v>
+        <v>8.893000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B40">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2.401</v>
+        <v>10.166</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>14.783</v>
+        <v>10.995</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>17.8</v>
+        <v>3.164</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>17.146</v>
+        <v>1.991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45944.4375</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>5.587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45944.44791666666</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>2.668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45944.45833333334</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>5.505</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,285 +403,285 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45944</v>
+        <v>45947</v>
       </c>
       <c r="B2">
-        <v>1.613</v>
+        <v>0.098</v>
       </c>
       <c r="C2">
-        <v>5.582</v>
+        <v>11.809</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45944.01041666666</v>
+        <v>45947.01041666666</v>
       </c>
       <c r="B3">
-        <v>9.273</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.102</v>
+        <v>10.638</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45944.02083333334</v>
+        <v>45947.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.934</v>
+        <v>7.913</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45944.03125</v>
+        <v>45947.03125</v>
       </c>
       <c r="B5">
-        <v>2.297</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.881</v>
+        <v>8.045999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45944.04166666666</v>
+        <v>45947.04166666666</v>
       </c>
       <c r="B6">
-        <v>3.174</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.599</v>
+        <v>19.246</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45944.05208333334</v>
+        <v>45947.05208333334</v>
       </c>
       <c r="B7">
-        <v>6.307</v>
+        <v>0.176</v>
       </c>
       <c r="C7">
-        <v>0.002</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45944.0625</v>
+        <v>45947.0625</v>
       </c>
       <c r="B8">
-        <v>5.57</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.459</v>
+        <v>11.864</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45944.07291666666</v>
+        <v>45947.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.628</v>
+        <v>0.065</v>
       </c>
       <c r="C9">
-        <v>4.611</v>
+        <v>8.074999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45944.08333333334</v>
+        <v>45947.08333333334</v>
       </c>
       <c r="B10">
-        <v>5.235</v>
+        <v>0.582</v>
       </c>
       <c r="C10">
-        <v>1.354</v>
+        <v>7.819</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45944.09375</v>
+        <v>45947.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.663</v>
       </c>
       <c r="C11">
-        <v>13.796</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45944.10416666666</v>
+        <v>45947.10416666666</v>
       </c>
       <c r="B12">
-        <v>1.742</v>
+        <v>2.323</v>
       </c>
       <c r="C12">
-        <v>5.616</v>
+        <v>3.345</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45944.11458333334</v>
+        <v>45947.11458333334</v>
       </c>
       <c r="B13">
-        <v>4.598</v>
+        <v>0.912</v>
       </c>
       <c r="C13">
-        <v>0.096</v>
+        <v>3.041</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45944.125</v>
+        <v>45947.125</v>
       </c>
       <c r="B14">
-        <v>1.572</v>
+        <v>3.634</v>
       </c>
       <c r="C14">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45944.13541666666</v>
+        <v>45947.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.996</v>
       </c>
       <c r="C15">
-        <v>14.954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45944.14583333334</v>
+        <v>45947.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.748</v>
       </c>
       <c r="C16">
-        <v>12.306</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45944.15625</v>
+        <v>45947.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.736</v>
       </c>
       <c r="C17">
-        <v>14.513</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45944.16666666666</v>
+        <v>45947.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C18">
-        <v>1.754</v>
+        <v>10.328</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45944.17708333334</v>
+        <v>45947.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.195</v>
+        <v>2.952</v>
       </c>
       <c r="C19">
-        <v>1.112</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45944.1875</v>
+        <v>45947.1875</v>
       </c>
       <c r="B20">
-        <v>0.076</v>
+        <v>0.801</v>
       </c>
       <c r="C20">
-        <v>1.607</v>
+        <v>2.126</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45944.19791666666</v>
+        <v>45947.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.494</v>
       </c>
       <c r="C21">
-        <v>2.564</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45944.20833333334</v>
+        <v>45947.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.973</v>
       </c>
       <c r="C22">
-        <v>22.897</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45944.21875</v>
+        <v>45947.21875</v>
       </c>
       <c r="B23">
-        <v>0.038</v>
+        <v>7.344</v>
       </c>
       <c r="C23">
-        <v>8.913</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45944.22916666666</v>
+        <v>45947.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.894</v>
+        <v>3.491</v>
       </c>
       <c r="C24">
-        <v>5.072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45944.23958333334</v>
+        <v>45947.23958333334</v>
       </c>
       <c r="B25">
-        <v>9.673999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5.422</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45944.25</v>
+        <v>45947.25</v>
       </c>
       <c r="B26">
-        <v>4.336</v>
+        <v>5.118</v>
       </c>
       <c r="C26">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45944.26041666666</v>
+        <v>45947.26041666666</v>
       </c>
       <c r="B27">
-        <v>5.706</v>
+        <v>0.843</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -689,10 +689,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45944.27083333334</v>
+        <v>45947.27083333334</v>
       </c>
       <c r="B28">
-        <v>6.249</v>
+        <v>2.549</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45944.28125</v>
+        <v>45947.28125</v>
       </c>
       <c r="B29">
-        <v>12.104</v>
+        <v>3.773</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -711,189 +711,156 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45944.29166666666</v>
+        <v>45947.29166666666</v>
       </c>
       <c r="B30">
-        <v>1.099</v>
+        <v>6.059</v>
       </c>
       <c r="C30">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45944.30208333334</v>
+        <v>45947.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>8.823</v>
       </c>
       <c r="C31">
-        <v>9.195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45944.3125</v>
+        <v>45947.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4.558</v>
       </c>
       <c r="C32">
-        <v>17.105</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45944.32291666666</v>
+        <v>45947.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>32.792</v>
+        <v>88.074</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45944.33333333334</v>
+        <v>45947.33333333334</v>
       </c>
       <c r="B34">
-        <v>1.203</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>2.69</v>
+        <v>29.964</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45944.34375</v>
+        <v>45947.34375</v>
       </c>
       <c r="B35">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>7.036</v>
+        <v>33.722</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45944.35416666666</v>
+        <v>45947.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>24.745</v>
+        <v>31.844</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45944.36458333334</v>
+        <v>45947.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>8.907</v>
+        <v>29.284</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45944.375</v>
+        <v>45947.375</v>
       </c>
       <c r="B38">
-        <v>0.122</v>
+        <v>0.003</v>
       </c>
       <c r="C38">
-        <v>9.119</v>
+        <v>19.905</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45944.38541666666</v>
+        <v>45947.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>8.893000000000001</v>
+        <v>40.912</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45944.39583333334</v>
+        <v>45947.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2.186</v>
       </c>
       <c r="C40">
-        <v>10.166</v>
+        <v>4.816</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45944.40625</v>
+        <v>45947.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="C41">
-        <v>10.995</v>
+        <v>7.674</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45944.41666666666</v>
+        <v>45947.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>7.12</v>
       </c>
       <c r="C42">
-        <v>3.164</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45944.42708333334</v>
+        <v>45947.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4.468</v>
       </c>
       <c r="C43">
-        <v>1.991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>45944.4375</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>5.587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>45944.44791666666</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>2.668</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>45944.45833333334</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>5.505</v>
+        <v>10.326</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,142 +403,142 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45947</v>
+        <v>45954</v>
       </c>
       <c r="B2">
-        <v>0.098</v>
+        <v>3.36</v>
       </c>
       <c r="C2">
-        <v>11.809</v>
+        <v>9.510999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45947.01041666666</v>
+        <v>45954.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.637</v>
       </c>
       <c r="C3">
-        <v>10.638</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45947.02083333334</v>
+        <v>45954.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="C4">
-        <v>7.913</v>
+        <v>1.922</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45947.03125</v>
+        <v>45954.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.171</v>
       </c>
       <c r="C5">
-        <v>8.045999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45947.04166666666</v>
+        <v>45954.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5.691</v>
       </c>
       <c r="C6">
-        <v>19.246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45947.05208333334</v>
+        <v>45954.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.176</v>
+        <v>13.826</v>
       </c>
       <c r="C7">
-        <v>7.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45947.0625</v>
+        <v>45954.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>15.817</v>
       </c>
       <c r="C8">
-        <v>11.864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45947.07291666666</v>
+        <v>45954.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.065</v>
+        <v>16.297</v>
       </c>
       <c r="C9">
-        <v>8.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45947.08333333334</v>
+        <v>45954.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.582</v>
+        <v>34.057</v>
       </c>
       <c r="C10">
-        <v>7.819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45947.09375</v>
+        <v>45954.09375</v>
       </c>
       <c r="B11">
-        <v>2.663</v>
+        <v>38.432</v>
       </c>
       <c r="C11">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45947.10416666666</v>
+        <v>45954.10416666666</v>
       </c>
       <c r="B12">
-        <v>2.323</v>
+        <v>19.766</v>
       </c>
       <c r="C12">
-        <v>3.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45947.11458333334</v>
+        <v>45954.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.912</v>
+        <v>28.14</v>
       </c>
       <c r="C13">
-        <v>3.041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45947.125</v>
+        <v>45954.125</v>
       </c>
       <c r="B14">
-        <v>3.634</v>
+        <v>26.857</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -546,109 +546,109 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45947.13541666666</v>
+        <v>45954.13541666666</v>
       </c>
       <c r="B15">
-        <v>4.996</v>
+        <v>5.652</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45947.14583333334</v>
+        <v>45954.14583333334</v>
       </c>
       <c r="B16">
-        <v>1.748</v>
+        <v>2.309</v>
       </c>
       <c r="C16">
-        <v>1.14</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45947.15625</v>
+        <v>45954.15625</v>
       </c>
       <c r="B17">
-        <v>1.736</v>
+        <v>1.746</v>
       </c>
       <c r="C17">
-        <v>0.135</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45947.16666666666</v>
+        <v>45954.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.002</v>
+        <v>0.431</v>
       </c>
       <c r="C18">
-        <v>10.328</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45947.17708333334</v>
+        <v>45954.17708333334</v>
       </c>
       <c r="B19">
-        <v>2.952</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C19">
-        <v>0.152</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45947.1875</v>
+        <v>45954.1875</v>
       </c>
       <c r="B20">
-        <v>0.801</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2.126</v>
+        <v>7.611</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45947.19791666666</v>
+        <v>45954.19791666666</v>
       </c>
       <c r="B21">
-        <v>1.494</v>
+        <v>0.278</v>
       </c>
       <c r="C21">
-        <v>0.033</v>
+        <v>1.984</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45947.20833333334</v>
+        <v>45954.20833333334</v>
       </c>
       <c r="B22">
-        <v>1.973</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="C22">
-        <v>0.608</v>
+        <v>1.067</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45947.21875</v>
+        <v>45954.21875</v>
       </c>
       <c r="B23">
-        <v>7.344</v>
+        <v>18.911</v>
       </c>
       <c r="C23">
-        <v>0.062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45947.22916666666</v>
+        <v>45954.22916666666</v>
       </c>
       <c r="B24">
-        <v>3.491</v>
+        <v>18.096</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -656,211 +656,90 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45947.23958333334</v>
+        <v>45954.23958333334</v>
       </c>
       <c r="B25">
-        <v>4.25</v>
+        <v>5.451</v>
       </c>
       <c r="C25">
-        <v>5.422</v>
+        <v>6.555</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45947.25</v>
+        <v>45954.25</v>
       </c>
       <c r="B26">
-        <v>5.118</v>
+        <v>1.682</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>20.564</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45947.26041666666</v>
+        <v>45954.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.843</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>35.693</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45947.27083333334</v>
+        <v>45954.27083333334</v>
       </c>
       <c r="B28">
-        <v>2.549</v>
+        <v>0.007</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>7.558</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45947.28125</v>
+        <v>45954.28125</v>
       </c>
       <c r="B29">
-        <v>3.773</v>
+        <v>0.145</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>3.717</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45947.29166666666</v>
+        <v>45954.29166666666</v>
       </c>
       <c r="B30">
-        <v>6.059</v>
+        <v>2.281</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.157</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45947.30208333334</v>
+        <v>45954.30208333334</v>
       </c>
       <c r="B31">
-        <v>8.823</v>
+        <v>2.412</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45947.3125</v>
+        <v>45954.3125</v>
       </c>
       <c r="B32">
-        <v>4.558</v>
+        <v>0.02</v>
       </c>
       <c r="C32">
-        <v>13.015</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45947.32291666666</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>88.074</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45947.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>29.964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45947.34375</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>33.722</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45947.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>31.844</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45947.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>29.284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45947.375</v>
-      </c>
-      <c r="B38">
-        <v>0.003</v>
-      </c>
-      <c r="C38">
-        <v>19.905</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45947.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>40.912</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45947.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>2.186</v>
-      </c>
-      <c r="C40">
-        <v>4.816</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45947.40625</v>
-      </c>
-      <c r="B41">
-        <v>0.403</v>
-      </c>
-      <c r="C41">
-        <v>7.674</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45947.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>7.12</v>
-      </c>
-      <c r="C42">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45947.42708333334</v>
-      </c>
-      <c r="B43">
-        <v>4.468</v>
-      </c>
-      <c r="C43">
-        <v>10.326</v>
+        <v>1.745</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,54 +403,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45954</v>
+        <v>45969</v>
       </c>
       <c r="B2">
-        <v>3.36</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="C2">
-        <v>9.510999999999999</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45954.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B3">
-        <v>1.637</v>
+        <v>6.212</v>
       </c>
       <c r="C3">
-        <v>0.984</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45954.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.079</v>
+        <v>9.334</v>
       </c>
       <c r="C4">
-        <v>1.922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45954.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B5">
-        <v>2.171</v>
+        <v>8.616</v>
       </c>
       <c r="C5">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B6">
-        <v>5.691</v>
+        <v>11.112</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -458,10 +458,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B7">
-        <v>13.826</v>
+        <v>13.144</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -469,277 +469,266 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45954.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B8">
-        <v>15.817</v>
+        <v>3.548</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.463</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B9">
-        <v>16.297</v>
+        <v>1.428</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3.758</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B10">
-        <v>34.057</v>
+        <v>0.094</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.057</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B11">
-        <v>38.432</v>
+        <v>0.019</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B12">
-        <v>19.766</v>
+        <v>1.107</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B13">
-        <v>28.14</v>
+        <v>0.731</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5.566</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B14">
-        <v>26.857</v>
+        <v>0.299</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4.991</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B15">
-        <v>5.652</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.062</v>
+        <v>9.164</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B16">
-        <v>2.309</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.164</v>
+        <v>6.924</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B17">
-        <v>1.746</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.985</v>
+        <v>8.968999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.431</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.734</v>
+        <v>19.656</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.46</v>
+        <v>14.908</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.611</v>
+        <v>5.321</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.278</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1.984</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B22">
-        <v>9.701000000000001</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1.067</v>
+        <v>33.339</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B23">
-        <v>18.911</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>42.556</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B24">
-        <v>18.096</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>38.377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B25">
-        <v>5.451</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>6.555</v>
+        <v>13.999</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B26">
-        <v>1.682</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>20.564</v>
+        <v>60.406</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>35.693</v>
+        <v>20.337</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>7.558</v>
+        <v>13.395</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B29">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>3.717</v>
+        <v>12.136</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B30">
-        <v>2.281</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1.157</v>
+        <v>7.366</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B31">
-        <v>2.412</v>
+        <v>1.866</v>
       </c>
       <c r="C31">
-        <v>0.863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45954.3125</v>
-      </c>
-      <c r="B32">
-        <v>0.02</v>
-      </c>
-      <c r="C32">
-        <v>1.745</v>
+        <v>16.943</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,332 +403,343 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B2">
-        <v>8.191000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.047</v>
+        <v>7.583</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B3">
-        <v>6.212</v>
+        <v>0.12</v>
       </c>
       <c r="C3">
-        <v>0.498</v>
+        <v>11.998</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B4">
-        <v>9.334</v>
+        <v>1.23</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B5">
-        <v>8.616</v>
+        <v>3.624</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B6">
-        <v>11.112</v>
+        <v>3.204</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B7">
-        <v>13.144</v>
+        <v>2.952</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B8">
-        <v>3.548</v>
+        <v>2.939</v>
       </c>
       <c r="C8">
-        <v>1.463</v>
+        <v>1.127</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B9">
-        <v>1.428</v>
+        <v>0.145</v>
       </c>
       <c r="C9">
-        <v>3.758</v>
+        <v>3.377</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.057</v>
+        <v>43.665</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B11">
-        <v>0.019</v>
+        <v>0.916</v>
       </c>
       <c r="C11">
-        <v>5.8</v>
+        <v>9.532</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B12">
-        <v>1.107</v>
+        <v>0.028</v>
       </c>
       <c r="C12">
-        <v>1.83</v>
+        <v>5.968</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>5.566</v>
+        <v>22.399</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B14">
-        <v>0.299</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>4.991</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.164</v>
+        <v>13.868</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.924</v>
+        <v>22.114</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.968999999999999</v>
+        <v>39.259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>19.656</v>
+        <v>42.196</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.908</v>
+        <v>57.057</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.321</v>
+        <v>42.629</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.875</v>
+        <v>26.289</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>33.339</v>
+        <v>34.201</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>42.556</v>
+        <v>36.947</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>38.377</v>
+        <v>30.282</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.999</v>
+        <v>36.687</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>60.406</v>
+        <v>49.486</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>20.337</v>
+        <v>45.473</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>13.395</v>
+        <v>24.09</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.499</v>
       </c>
       <c r="C29">
-        <v>12.136</v>
+        <v>4.425</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>7.366</v>
+        <v>11.828</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
       <c r="B31">
-        <v>1.866</v>
+        <v>0.374</v>
       </c>
       <c r="C31">
-        <v>16.943</v>
+        <v>4.843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45970.3125</v>
+      </c>
+      <c r="B32">
+        <v>23.194</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,343 +403,640 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45970</v>
+        <v>45972</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>33.145</v>
       </c>
       <c r="C2">
-        <v>7.583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45970.01041666666</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>4.643</v>
       </c>
       <c r="C3">
-        <v>11.998</v>
+        <v>3.122</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45970.02083333334</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B4">
-        <v>1.23</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="C4">
-        <v>1.44</v>
+        <v>1.644</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45970.03125</v>
+        <v>45972.03125</v>
       </c>
       <c r="B5">
-        <v>3.624</v>
+        <v>3.578</v>
       </c>
       <c r="C5">
-        <v>3.678</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45970.04166666666</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B6">
-        <v>3.204</v>
+        <v>0.003</v>
       </c>
       <c r="C6">
-        <v>0.61</v>
+        <v>25.085</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45970.05208333334</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B7">
-        <v>2.952</v>
+        <v>0.018</v>
       </c>
       <c r="C7">
-        <v>0.5600000000000001</v>
+        <v>14.168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45970.0625</v>
+        <v>45972.0625</v>
       </c>
       <c r="B8">
-        <v>2.939</v>
+        <v>1.85</v>
       </c>
       <c r="C8">
-        <v>1.127</v>
+        <v>2.872</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45970.07291666666</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.377</v>
+        <v>19.343</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45970.08333333334</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>43.665</v>
+        <v>26.124</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45970.09375</v>
+        <v>45972.09375</v>
       </c>
       <c r="B11">
-        <v>0.916</v>
+        <v>0.152</v>
       </c>
       <c r="C11">
-        <v>9.532</v>
+        <v>6.697</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45970.10416666666</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>5.968</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45970.11458333334</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>22.399</v>
+        <v>2.029</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45970.125</v>
+        <v>45972.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="C14">
-        <v>10.42</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45970.13541666666</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="C15">
-        <v>13.868</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45970.14583333334</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="C16">
-        <v>22.114</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45970.15625</v>
+        <v>45972.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="C17">
-        <v>39.259</v>
+        <v>5.381</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45970.16666666666</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="C18">
-        <v>42.196</v>
+        <v>11.307</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45970.17708333334</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C19">
-        <v>57.057</v>
+        <v>10.293</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45970.1875</v>
+        <v>45972.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.778</v>
       </c>
       <c r="C20">
-        <v>42.629</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45970.19791666666</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="C21">
-        <v>26.289</v>
+        <v>10.864</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45970.20833333334</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.211</v>
       </c>
       <c r="C22">
-        <v>34.201</v>
+        <v>8.537000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45970.21875</v>
+        <v>45972.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="C23">
-        <v>36.947</v>
+        <v>18.425</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45970.22916666666</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>30.282</v>
+        <v>36.517</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45970.23958333334</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.392</v>
       </c>
       <c r="C25">
-        <v>36.687</v>
+        <v>11.859</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45970.25</v>
+        <v>45972.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>49.486</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45970.26041666666</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>45.473</v>
+        <v>48.264</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45970.27083333334</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>24.09</v>
+        <v>22.214</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45970.28125</v>
+        <v>45972.28125</v>
       </c>
       <c r="B29">
-        <v>0.499</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>4.425</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45970.29166666666</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>11.828</v>
+        <v>58.128</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45970.30208333334</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>4.843</v>
+        <v>50.754</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45970.3125</v>
+        <v>45972.3125</v>
       </c>
       <c r="B32">
-        <v>23.194</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>48.902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45972.32291666666</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>12.569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45972.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>23.936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45972.34375</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>22.099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45972.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>0.019</v>
+      </c>
+      <c r="C36">
+        <v>14.428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45972.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>30.072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45972.375</v>
+      </c>
+      <c r="B38">
+        <v>0.151</v>
+      </c>
+      <c r="C38">
+        <v>24.135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45972.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>15.917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45972.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>13.884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45972.40625</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>62.638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45972.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>67.321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45972.42708333334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>14.319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45972.4375</v>
+      </c>
+      <c r="B44">
+        <v>0.374</v>
+      </c>
+      <c r="C44">
+        <v>15.429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45972.44791666666</v>
+      </c>
+      <c r="B45">
+        <v>0.393</v>
+      </c>
+      <c r="C45">
+        <v>5.418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45972.45833333334</v>
+      </c>
+      <c r="B46">
+        <v>0.023</v>
+      </c>
+      <c r="C46">
+        <v>30.065</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45972.46875</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>28.932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45972.47916666666</v>
+      </c>
+      <c r="B48">
+        <v>2.376</v>
+      </c>
+      <c r="C48">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45972.48958333334</v>
+      </c>
+      <c r="B49">
+        <v>1.675</v>
+      </c>
+      <c r="C49">
+        <v>2.541</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45972.5</v>
+      </c>
+      <c r="B50">
+        <v>0.431</v>
+      </c>
+      <c r="C50">
+        <v>5.108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45972.51041666666</v>
+      </c>
+      <c r="B51">
+        <v>2.093</v>
+      </c>
+      <c r="C51">
+        <v>0.206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45972.52083333334</v>
+      </c>
+      <c r="B52">
+        <v>8.56</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45972.53125</v>
+      </c>
+      <c r="B53">
+        <v>9.212</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45972.54166666666</v>
+      </c>
+      <c r="B54">
+        <v>0.616</v>
+      </c>
+      <c r="C54">
+        <v>7.344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45972.55208333334</v>
+      </c>
+      <c r="B55">
+        <v>1.811</v>
+      </c>
+      <c r="C55">
+        <v>2.017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45972.5625</v>
+      </c>
+      <c r="B56">
+        <v>1.094</v>
+      </c>
+      <c r="C56">
+        <v>0.9350000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45972.57291666666</v>
+      </c>
+      <c r="B57">
+        <v>0.95</v>
+      </c>
+      <c r="C57">
+        <v>2.678</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45972.58333333334</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>41.501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45972.59375</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>21.909</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,640 +403,651 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45972</v>
+        <v>45982</v>
       </c>
       <c r="B2">
-        <v>33.145</v>
+        <v>2.434</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6.682</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45972.01041666666</v>
+        <v>45982.01041666666</v>
       </c>
       <c r="B3">
-        <v>4.643</v>
+        <v>13.159</v>
       </c>
       <c r="C3">
-        <v>3.122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45972.02083333334</v>
+        <v>45982.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.6870000000000001</v>
+        <v>14.898</v>
       </c>
       <c r="C4">
-        <v>1.644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45972.03125</v>
+        <v>45982.03125</v>
       </c>
       <c r="B5">
-        <v>3.578</v>
+        <v>25.861</v>
       </c>
       <c r="C5">
-        <v>1.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45972.04166666666</v>
+        <v>45982.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.003</v>
+        <v>10.729</v>
       </c>
       <c r="C6">
-        <v>25.085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45972.05208333334</v>
+        <v>45982.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.018</v>
+        <v>5.204</v>
       </c>
       <c r="C7">
-        <v>14.168</v>
+        <v>1.382</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45972.0625</v>
+        <v>45982.0625</v>
       </c>
       <c r="B8">
-        <v>1.85</v>
+        <v>21.775</v>
       </c>
       <c r="C8">
-        <v>2.872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45972.07291666666</v>
+        <v>45982.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>21.957</v>
       </c>
       <c r="C9">
-        <v>19.343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45972.08333333334</v>
+        <v>45982.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15.17</v>
       </c>
       <c r="C10">
-        <v>26.124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45972.09375</v>
+        <v>45982.09375</v>
       </c>
       <c r="B11">
-        <v>0.152</v>
+        <v>21.101</v>
       </c>
       <c r="C11">
-        <v>6.697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45972.10416666666</v>
+        <v>45982.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>15.088</v>
       </c>
       <c r="C12">
-        <v>1.072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45972.11458333334</v>
+        <v>45982.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>15.57</v>
       </c>
       <c r="C13">
-        <v>2.029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45972.125</v>
+        <v>45982.125</v>
       </c>
       <c r="B14">
-        <v>1.33</v>
+        <v>7.731</v>
       </c>
       <c r="C14">
-        <v>0.752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45972.13541666666</v>
+        <v>45982.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.097</v>
+        <v>19.647</v>
       </c>
       <c r="C15">
-        <v>1.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45972.14583333334</v>
+        <v>45982.14583333334</v>
       </c>
       <c r="B16">
-        <v>2.18</v>
+        <v>33.607</v>
       </c>
       <c r="C16">
-        <v>0.5620000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45972.15625</v>
+        <v>45982.15625</v>
       </c>
       <c r="B17">
-        <v>0.8110000000000001</v>
+        <v>42.088</v>
       </c>
       <c r="C17">
-        <v>5.381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45972.16666666666</v>
+        <v>45982.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.014</v>
+        <v>17.39</v>
       </c>
       <c r="C18">
-        <v>11.307</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45972.17708333334</v>
+        <v>45982.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.001</v>
+        <v>4.052</v>
       </c>
       <c r="C19">
-        <v>10.293</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45972.1875</v>
+        <v>45982.1875</v>
       </c>
       <c r="B20">
-        <v>0.778</v>
+        <v>1.613</v>
       </c>
       <c r="C20">
-        <v>5.48</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45972.19791666666</v>
+        <v>45982.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.061</v>
+        <v>10.796</v>
       </c>
       <c r="C21">
-        <v>10.864</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45972.20833333334</v>
+        <v>45982.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.211</v>
+        <v>21.301</v>
       </c>
       <c r="C22">
-        <v>8.537000000000001</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45972.21875</v>
+        <v>45982.21875</v>
       </c>
       <c r="B23">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>18.425</v>
+        <v>10.072</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45972.22916666666</v>
+        <v>45982.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>36.517</v>
+        <v>8.683999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45972.23958333334</v>
+        <v>45982.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.392</v>
+        <v>0.779</v>
       </c>
       <c r="C25">
-        <v>11.859</v>
+        <v>1.774</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45972.25</v>
+        <v>45982.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="C26">
-        <v>33.74</v>
+        <v>12.234</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45972.26041666666</v>
+        <v>45982.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>48.264</v>
+        <v>25.384</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45972.27083333334</v>
+        <v>45982.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C28">
-        <v>22.214</v>
+        <v>7.288</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45972.28125</v>
+        <v>45982.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>44.75</v>
+        <v>14.045</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45972.29166666666</v>
+        <v>45982.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>58.128</v>
+        <v>22.737</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45972.30208333334</v>
+        <v>45982.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>50.754</v>
+        <v>25.189</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45972.3125</v>
+        <v>45982.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>48.902</v>
+        <v>29.633</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45972.32291666666</v>
+        <v>45982.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>12.569</v>
+        <v>35.244</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45972.33333333334</v>
+        <v>45982.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="C34">
-        <v>23.936</v>
+        <v>11.329</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45972.34375</v>
+        <v>45982.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>22.099</v>
+        <v>5.535</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45972.35416666666</v>
+        <v>45982.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>14.428</v>
+        <v>13.592</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45972.36458333334</v>
+        <v>45982.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.623</v>
       </c>
       <c r="C37">
-        <v>30.072</v>
+        <v>5.076</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45972.375</v>
+        <v>45982.375</v>
       </c>
       <c r="B38">
-        <v>0.151</v>
+        <v>9.321</v>
       </c>
       <c r="C38">
-        <v>24.135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45972.38541666666</v>
+        <v>45982.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C39">
-        <v>15.917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45972.39583333334</v>
+        <v>45982.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="C40">
-        <v>13.884</v>
+        <v>18.794</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45972.40625</v>
+        <v>45982.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>62.638</v>
+        <v>15.822</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45972.41666666666</v>
+        <v>45982.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>16.546</v>
       </c>
       <c r="C42">
-        <v>67.321</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45972.42708333334</v>
+        <v>45982.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>28.682</v>
       </c>
       <c r="C43">
-        <v>14.319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>45972.4375</v>
+        <v>45982.4375</v>
       </c>
       <c r="B44">
-        <v>0.374</v>
+        <v>1.393</v>
       </c>
       <c r="C44">
-        <v>15.429</v>
+        <v>3.243</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>45972.44791666666</v>
+        <v>45982.44791666666</v>
       </c>
       <c r="B45">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>5.418</v>
+        <v>35.148</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>45972.45833333334</v>
+        <v>45982.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>30.065</v>
+        <v>27.383</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>45972.46875</v>
+        <v>45982.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>28.932</v>
+        <v>40.888</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>45972.47916666666</v>
+        <v>45982.47916666666</v>
       </c>
       <c r="B48">
-        <v>2.376</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>5.12</v>
+        <v>59.993</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>45972.48958333334</v>
+        <v>45982.48958333334</v>
       </c>
       <c r="B49">
-        <v>1.675</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>2.541</v>
+        <v>70.01000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>45972.5</v>
+        <v>45982.5</v>
       </c>
       <c r="B50">
-        <v>0.431</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>5.108</v>
+        <v>54.577</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>45972.51041666666</v>
+        <v>45982.51041666666</v>
       </c>
       <c r="B51">
-        <v>2.093</v>
+        <v>4.113</v>
       </c>
       <c r="C51">
-        <v>0.206</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>45972.52083333334</v>
+        <v>45982.52083333334</v>
       </c>
       <c r="B52">
-        <v>8.56</v>
+        <v>1.816</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>45972.53125</v>
+        <v>45982.53125</v>
       </c>
       <c r="B53">
-        <v>9.212</v>
+        <v>2.059</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1.585</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>45972.54166666666</v>
+        <v>45982.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.616</v>
+        <v>0.961</v>
       </c>
       <c r="C54">
-        <v>7.344</v>
+        <v>3.075</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>45972.55208333334</v>
+        <v>45982.55208333334</v>
       </c>
       <c r="B55">
-        <v>1.811</v>
+        <v>15.74</v>
       </c>
       <c r="C55">
-        <v>2.017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>45972.5625</v>
+        <v>45982.5625</v>
       </c>
       <c r="B56">
-        <v>1.094</v>
+        <v>14.549</v>
       </c>
       <c r="C56">
-        <v>0.9350000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>45972.57291666666</v>
+        <v>45982.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.95</v>
+        <v>4.191</v>
       </c>
       <c r="C57">
-        <v>2.678</v>
+        <v>2.099</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>45972.58333333334</v>
+        <v>45982.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>41.501</v>
+        <v>34.288</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>45972.59375</v>
+        <v>45982.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.473</v>
       </c>
       <c r="C59">
-        <v>21.909</v>
+        <v>11.651</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45982.60416666666</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,21 +403,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45982</v>
+        <v>45984</v>
       </c>
       <c r="B2">
-        <v>2.434</v>
+        <v>6.205</v>
       </c>
       <c r="C2">
-        <v>6.682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45982.01041666666</v>
+        <v>45984.01041666666</v>
       </c>
       <c r="B3">
-        <v>13.159</v>
+        <v>6.995</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -425,10 +425,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45982.02083333334</v>
+        <v>45984.02083333334</v>
       </c>
       <c r="B4">
-        <v>14.898</v>
+        <v>15.429</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -436,109 +436,109 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45982.03125</v>
+        <v>45984.03125</v>
       </c>
       <c r="B5">
-        <v>25.861</v>
+        <v>14.145</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45982.04166666666</v>
+        <v>45984.04166666666</v>
       </c>
       <c r="B6">
-        <v>10.729</v>
+        <v>1.634</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45982.05208333334</v>
+        <v>45984.05208333334</v>
       </c>
       <c r="B7">
-        <v>5.204</v>
+        <v>0.203</v>
       </c>
       <c r="C7">
-        <v>1.382</v>
+        <v>7.288</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45982.0625</v>
+        <v>45984.0625</v>
       </c>
       <c r="B8">
-        <v>21.775</v>
+        <v>0.383</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.689</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45982.07291666666</v>
+        <v>45984.07291666666</v>
       </c>
       <c r="B9">
-        <v>21.957</v>
+        <v>0.019</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4.395</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45982.08333333334</v>
+        <v>45984.08333333334</v>
       </c>
       <c r="B10">
-        <v>15.17</v>
+        <v>0.253</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.714</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45982.09375</v>
+        <v>45984.09375</v>
       </c>
       <c r="B11">
-        <v>21.101</v>
+        <v>0.298</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.536</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45982.10416666666</v>
+        <v>45984.10416666666</v>
       </c>
       <c r="B12">
-        <v>15.088</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45982.11458333334</v>
+        <v>45984.11458333334</v>
       </c>
       <c r="B13">
-        <v>15.57</v>
+        <v>1.629</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45982.125</v>
+        <v>45984.125</v>
       </c>
       <c r="B14">
-        <v>7.731</v>
+        <v>8.473000000000001</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -546,10 +546,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45982.13541666666</v>
+        <v>45984.13541666666</v>
       </c>
       <c r="B15">
-        <v>19.647</v>
+        <v>22.75</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45982.14583333334</v>
+        <v>45984.14583333334</v>
       </c>
       <c r="B16">
-        <v>33.607</v>
+        <v>15.004</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45982.15625</v>
+        <v>45984.15625</v>
       </c>
       <c r="B17">
-        <v>42.088</v>
+        <v>13.696</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -579,474 +579,177 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45982.16666666666</v>
+        <v>45984.16666666666</v>
       </c>
       <c r="B18">
-        <v>17.39</v>
+        <v>12.254</v>
       </c>
       <c r="C18">
-        <v>0.016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45982.17708333334</v>
+        <v>45984.17708333334</v>
       </c>
       <c r="B19">
-        <v>4.052</v>
+        <v>12.101</v>
       </c>
       <c r="C19">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45982.1875</v>
+        <v>45984.1875</v>
       </c>
       <c r="B20">
-        <v>1.613</v>
+        <v>16.33</v>
       </c>
       <c r="C20">
-        <v>1.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45982.19791666666</v>
+        <v>45984.19791666666</v>
       </c>
       <c r="B21">
-        <v>10.796</v>
+        <v>20.236</v>
       </c>
       <c r="C21">
-        <v>0.063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45982.20833333334</v>
+        <v>45984.20833333334</v>
       </c>
       <c r="B22">
-        <v>21.301</v>
+        <v>5.814</v>
       </c>
       <c r="C22">
-        <v>0.483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45982.21875</v>
+        <v>45984.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>8.702999999999999</v>
       </c>
       <c r="C23">
-        <v>10.072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45982.22916666666</v>
+        <v>45984.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.989</v>
       </c>
       <c r="C24">
-        <v>8.683999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45982.23958333334</v>
+        <v>45984.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.779</v>
+        <v>5.086</v>
       </c>
       <c r="C25">
-        <v>1.774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45982.25</v>
+        <v>45984.25</v>
       </c>
       <c r="B26">
-        <v>0.056</v>
+        <v>4.3</v>
       </c>
       <c r="C26">
-        <v>12.234</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45982.26041666666</v>
+        <v>45984.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1.913</v>
       </c>
       <c r="C27">
-        <v>25.384</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45982.27083333334</v>
+        <v>45984.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.003</v>
+        <v>0.255</v>
       </c>
       <c r="C28">
-        <v>7.288</v>
+        <v>3.189</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45982.28125</v>
+        <v>45984.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>5.892</v>
       </c>
       <c r="C29">
-        <v>14.045</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45982.29166666666</v>
+        <v>45984.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2.191</v>
       </c>
       <c r="C30">
-        <v>22.737</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45982.30208333334</v>
+        <v>45984.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>10.187</v>
       </c>
       <c r="C31">
-        <v>25.189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45982.3125</v>
+        <v>45984.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3.357</v>
       </c>
       <c r="C32">
-        <v>29.633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45982.32291666666</v>
+        <v>45984.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>35.244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45982.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>0.132</v>
-      </c>
-      <c r="C34">
-        <v>11.329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45982.34375</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>5.535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45982.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>13.592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45982.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>0.623</v>
-      </c>
-      <c r="C37">
-        <v>5.076</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45982.375</v>
-      </c>
-      <c r="B38">
-        <v>9.321</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45982.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45982.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>0.116</v>
-      </c>
-      <c r="C40">
-        <v>18.794</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45982.40625</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>15.822</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45982.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>16.546</v>
-      </c>
-      <c r="C42">
-        <v>0.634</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45982.42708333334</v>
-      </c>
-      <c r="B43">
-        <v>28.682</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>45982.4375</v>
-      </c>
-      <c r="B44">
-        <v>1.393</v>
-      </c>
-      <c r="C44">
-        <v>3.243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>45982.44791666666</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>35.148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>45982.45833333334</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>27.383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>45982.46875</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>40.888</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>45982.47916666666</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>59.993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>45982.48958333334</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>70.01000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
-        <v>45982.5</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>54.577</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
-        <v>45982.51041666666</v>
-      </c>
-      <c r="B51">
-        <v>4.113</v>
-      </c>
-      <c r="C51">
-        <v>9.210000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>45982.52083333334</v>
-      </c>
-      <c r="B52">
-        <v>1.816</v>
-      </c>
-      <c r="C52">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
-        <v>45982.53125</v>
-      </c>
-      <c r="B53">
-        <v>2.059</v>
-      </c>
-      <c r="C53">
-        <v>1.585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
-        <v>45982.54166666666</v>
-      </c>
-      <c r="B54">
-        <v>0.961</v>
-      </c>
-      <c r="C54">
-        <v>3.075</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
-        <v>45982.55208333334</v>
-      </c>
-      <c r="B55">
-        <v>15.74</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
-        <v>45982.5625</v>
-      </c>
-      <c r="B56">
-        <v>14.549</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
-        <v>45982.57291666666</v>
-      </c>
-      <c r="B57">
-        <v>4.191</v>
-      </c>
-      <c r="C57">
-        <v>2.099</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
-        <v>45982.58333333334</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>34.288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
-        <v>45982.59375</v>
-      </c>
-      <c r="B59">
-        <v>0.473</v>
-      </c>
-      <c r="C59">
-        <v>11.651</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2">
-        <v>45982.60416666666</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,329 +403,329 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45984</v>
+        <v>45993</v>
       </c>
       <c r="B2">
-        <v>6.205</v>
+        <v>1.39</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45984.01041666666</v>
+        <v>45993.01041666666</v>
       </c>
       <c r="B3">
-        <v>6.995</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45984.02083333334</v>
+        <v>45993.02083333334</v>
       </c>
       <c r="B4">
-        <v>15.429</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.328</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45984.03125</v>
+        <v>45993.03125</v>
       </c>
       <c r="B5">
-        <v>14.145</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.704</v>
+        <v>4.428</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45984.04166666666</v>
+        <v>45993.04166666666</v>
       </c>
       <c r="B6">
-        <v>1.634</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07000000000000001</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45984.05208333334</v>
+        <v>45993.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>7.288</v>
+        <v>18.278</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45984.0625</v>
+        <v>45993.0625</v>
       </c>
       <c r="B8">
-        <v>0.383</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.689</v>
+        <v>3.819</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45984.07291666666</v>
+        <v>45993.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.395</v>
+        <v>5.415</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45984.08333333334</v>
+        <v>45993.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.253</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.714</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45984.09375</v>
+        <v>45993.09375</v>
       </c>
       <c r="B11">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.536</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45984.10416666666</v>
+        <v>45993.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>4.973</v>
       </c>
       <c r="C12">
-        <v>0.849</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45984.11458333334</v>
+        <v>45993.11458333334</v>
       </c>
       <c r="B13">
-        <v>1.629</v>
+        <v>0.002</v>
       </c>
       <c r="C13">
-        <v>0.443</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45984.125</v>
+        <v>45993.125</v>
       </c>
       <c r="B14">
-        <v>8.473000000000001</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>8.766999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45984.13541666666</v>
+        <v>45993.13541666666</v>
       </c>
       <c r="B15">
-        <v>22.75</v>
+        <v>0.042</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45984.14583333334</v>
+        <v>45993.14583333334</v>
       </c>
       <c r="B16">
-        <v>15.004</v>
+        <v>0.159</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45984.15625</v>
+        <v>45993.15625</v>
       </c>
       <c r="B17">
-        <v>13.696</v>
+        <v>2.944</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45984.16666666666</v>
+        <v>45993.16666666666</v>
       </c>
       <c r="B18">
-        <v>12.254</v>
+        <v>4.127</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45984.17708333334</v>
+        <v>45993.17708333334</v>
       </c>
       <c r="B19">
-        <v>12.101</v>
+        <v>5.369</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45984.1875</v>
+        <v>45993.1875</v>
       </c>
       <c r="B20">
-        <v>16.33</v>
+        <v>1.54</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.903</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45984.19791666666</v>
+        <v>45993.19791666666</v>
       </c>
       <c r="B21">
-        <v>20.236</v>
+        <v>3.79</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45984.20833333334</v>
+        <v>45993.20833333334</v>
       </c>
       <c r="B22">
-        <v>5.814</v>
+        <v>12.263</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.751</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45984.21875</v>
+        <v>45993.21875</v>
       </c>
       <c r="B23">
-        <v>8.702999999999999</v>
+        <v>10.276</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45984.22916666666</v>
+        <v>45993.22916666666</v>
       </c>
       <c r="B24">
-        <v>4.989</v>
+        <v>10.383</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45984.23958333334</v>
+        <v>45993.23958333334</v>
       </c>
       <c r="B25">
-        <v>5.086</v>
+        <v>8.279</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45984.25</v>
+        <v>45993.25</v>
       </c>
       <c r="B26">
-        <v>4.3</v>
+        <v>7.695</v>
       </c>
       <c r="C26">
-        <v>0.236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45984.26041666666</v>
+        <v>45993.26041666666</v>
       </c>
       <c r="B27">
-        <v>1.913</v>
+        <v>14.984</v>
       </c>
       <c r="C27">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45984.27083333334</v>
+        <v>45993.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.255</v>
+        <v>28.921</v>
       </c>
       <c r="C28">
-        <v>3.189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45984.28125</v>
+        <v>45993.28125</v>
       </c>
       <c r="B29">
-        <v>5.892</v>
+        <v>19.787</v>
       </c>
       <c r="C29">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45984.29166666666</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="B30">
-        <v>2.191</v>
+        <v>1.629</v>
       </c>
       <c r="C30">
-        <v>0.58</v>
+        <v>1.951</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45984.30208333334</v>
+        <v>45993.30208333334</v>
       </c>
       <c r="B31">
-        <v>10.187</v>
+        <v>1.933</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45984.3125</v>
+        <v>45993.3125</v>
       </c>
       <c r="B32">
-        <v>3.357</v>
+        <v>2.433</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -744,12 +744,122 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45984.33333333334</v>
+        <v>45993.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.846</v>
       </c>
       <c r="C33">
+        <v>7.175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45993.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>39.747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45993.34375</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>23.315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45993.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>1.455</v>
+      </c>
+      <c r="C36">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45993.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>3.101</v>
+      </c>
+      <c r="C37">
+        <v>7.265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45993.375</v>
+      </c>
+      <c r="B38">
+        <v>0.134</v>
+      </c>
+      <c r="C38">
+        <v>1.604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45993.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>0.157</v>
+      </c>
+      <c r="C39">
+        <v>4.605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45993.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>4.15</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45993.40625</v>
+      </c>
+      <c r="B41">
+        <v>0.963</v>
+      </c>
+      <c r="C41">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45993.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>9.005000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45993.42708333334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,463 +403,474 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B2">
-        <v>1.39</v>
+        <v>1.154</v>
       </c>
       <c r="C2">
-        <v>14.36</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45993.01041666666</v>
+        <v>45995.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="C3">
-        <v>1.055</v>
+        <v>3.597</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45993.02083333334</v>
+        <v>45995.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.634</v>
       </c>
       <c r="C4">
-        <v>3.328</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45993.03125</v>
+        <v>45995.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8.077</v>
       </c>
       <c r="C5">
-        <v>4.428</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45993.04166666666</v>
+        <v>45995.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.424</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45993.05208333334</v>
+        <v>45995.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>18.278</v>
+        <v>20.499</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45993.0625</v>
+        <v>45995.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.299</v>
       </c>
       <c r="C8">
-        <v>3.819</v>
+        <v>5.591</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45993.07291666666</v>
+        <v>45995.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="C9">
-        <v>5.415</v>
+        <v>1.467</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45993.08333333334</v>
+        <v>45995.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.569</v>
+        <v>29.264</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45993.09375</v>
+        <v>45995.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.639</v>
+        <v>36.298</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45993.10416666666</v>
+        <v>45995.10416666666</v>
       </c>
       <c r="B12">
-        <v>4.973</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.013</v>
+        <v>15.642</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45993.11458333334</v>
+        <v>45995.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.002</v>
+        <v>0.956</v>
       </c>
       <c r="C13">
-        <v>0.785</v>
+        <v>1.673</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45993.125</v>
+        <v>45995.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.766999999999999</v>
+        <v>18.749</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45993.13541666666</v>
+        <v>45995.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.042</v>
+        <v>0.092</v>
       </c>
       <c r="C15">
-        <v>0.536</v>
+        <v>11.932</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45993.14583333334</v>
+        <v>45995.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.159</v>
+        <v>4.865</v>
       </c>
       <c r="C16">
-        <v>0.713</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45993.15625</v>
+        <v>45995.15625</v>
       </c>
       <c r="B17">
-        <v>2.944</v>
+        <v>0.33</v>
       </c>
       <c r="C17">
-        <v>0.416</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45993.16666666666</v>
+        <v>45995.16666666666</v>
       </c>
       <c r="B18">
-        <v>4.127</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C18">
-        <v>0.191</v>
+        <v>5.681</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45993.17708333334</v>
+        <v>45995.17708333334</v>
       </c>
       <c r="B19">
-        <v>5.369</v>
+        <v>1.144</v>
       </c>
       <c r="C19">
-        <v>0.537</v>
+        <v>6.498</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45993.1875</v>
+        <v>45995.1875</v>
       </c>
       <c r="B20">
-        <v>1.54</v>
+        <v>7.342</v>
       </c>
       <c r="C20">
-        <v>1.903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45993.19791666666</v>
+        <v>45995.19791666666</v>
       </c>
       <c r="B21">
-        <v>3.79</v>
+        <v>2.543</v>
       </c>
       <c r="C21">
-        <v>0.617</v>
+        <v>8.712999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45993.20833333334</v>
+        <v>45995.20833333334</v>
       </c>
       <c r="B22">
-        <v>12.263</v>
+        <v>0.881</v>
       </c>
       <c r="C22">
-        <v>2.751</v>
+        <v>11.482</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45993.21875</v>
+        <v>45995.21875</v>
       </c>
       <c r="B23">
-        <v>10.276</v>
+        <v>0.307</v>
       </c>
       <c r="C23">
-        <v>0.173</v>
+        <v>1.253</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45993.22916666666</v>
+        <v>45995.22916666666</v>
       </c>
       <c r="B24">
-        <v>10.383</v>
+        <v>5.354</v>
       </c>
       <c r="C24">
-        <v>0.081</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45993.23958333334</v>
+        <v>45995.23958333334</v>
       </c>
       <c r="B25">
-        <v>8.279</v>
+        <v>0.08</v>
       </c>
       <c r="C25">
-        <v>0.061</v>
+        <v>6.546</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45993.25</v>
+        <v>45995.25</v>
       </c>
       <c r="B26">
-        <v>7.695</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>71.91200000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45993.26041666666</v>
+        <v>45995.26041666666</v>
       </c>
       <c r="B27">
-        <v>14.984</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>29.821</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45993.27083333334</v>
+        <v>45995.27083333334</v>
       </c>
       <c r="B28">
-        <v>28.921</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>38.828</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45993.28125</v>
+        <v>45995.28125</v>
       </c>
       <c r="B29">
-        <v>19.787</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.004</v>
+        <v>21.999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45993.29166666666</v>
+        <v>45995.29166666666</v>
       </c>
       <c r="B30">
-        <v>1.629</v>
+        <v>0.214</v>
       </c>
       <c r="C30">
-        <v>1.951</v>
+        <v>8.041</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45993.30208333334</v>
+        <v>45995.30208333334</v>
       </c>
       <c r="B31">
-        <v>1.933</v>
+        <v>6.71</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1.856</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45993.3125</v>
+        <v>45995.3125</v>
       </c>
       <c r="B32">
-        <v>2.433</v>
+        <v>8.436999999999999</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45993.32291666666</v>
+        <v>45995.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.846</v>
+        <v>4.627</v>
       </c>
       <c r="C33">
-        <v>7.175</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45993.33333333334</v>
+        <v>45995.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4.408</v>
       </c>
       <c r="C34">
-        <v>39.747</v>
+        <v>7.875</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45993.34375</v>
+        <v>45995.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C35">
-        <v>23.315</v>
+        <v>7.934</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45993.35416666666</v>
+        <v>45995.35416666666</v>
       </c>
       <c r="B36">
-        <v>1.455</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C36">
-        <v>1.32</v>
+        <v>14.465</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45993.36458333334</v>
+        <v>45995.36458333334</v>
       </c>
       <c r="B37">
-        <v>3.101</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>7.265</v>
+        <v>20.877</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45993.375</v>
+        <v>45995.375</v>
       </c>
       <c r="B38">
-        <v>0.134</v>
+        <v>0.067</v>
       </c>
       <c r="C38">
-        <v>1.604</v>
+        <v>18.413</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45993.38541666666</v>
+        <v>45995.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.157</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>4.605</v>
+        <v>34.527</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45993.39583333334</v>
+        <v>45995.39583333334</v>
       </c>
       <c r="B40">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>61.12</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45993.40625</v>
+        <v>45995.40625</v>
       </c>
       <c r="B41">
-        <v>0.963</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.475</v>
+        <v>48.471</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45993.41666666666</v>
+        <v>45995.41666666666</v>
       </c>
       <c r="B42">
-        <v>9.005000000000001</v>
+        <v>11.127</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45993.42708333334</v>
+        <v>45995.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="C43">
+        <v>5.477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45995.4375</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,474 +403,331 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45995</v>
+        <v>46006</v>
       </c>
       <c r="B2">
-        <v>1.154</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10.81</v>
+        <v>11.364</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45995.01041666666</v>
+        <v>46006.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.193</v>
+        <v>0.005</v>
       </c>
       <c r="C3">
-        <v>3.597</v>
+        <v>11.286</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45995.02083333334</v>
+        <v>46006.02083333334</v>
       </c>
       <c r="B4">
-        <v>4.634</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.053</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45995.03125</v>
+        <v>46006.03125</v>
       </c>
       <c r="B5">
-        <v>8.077</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.774</v>
+        <v>20.788</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45995.04166666666</v>
+        <v>46006.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>21.36</v>
+        <v>23.581</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45995.05208333334</v>
+        <v>46006.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>20.499</v>
+        <v>10.778</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45995.0625</v>
+        <v>46006.0625</v>
       </c>
       <c r="B8">
-        <v>4.299</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.591</v>
+        <v>12.671</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45995.07291666666</v>
+        <v>46006.07291666666</v>
       </c>
       <c r="B9">
-        <v>1.771</v>
+        <v>2.307</v>
       </c>
       <c r="C9">
-        <v>1.467</v>
+        <v>1.115</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45995.08333333334</v>
+        <v>46006.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3.471</v>
       </c>
       <c r="C10">
-        <v>29.264</v>
+        <v>5.077</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45995.09375</v>
+        <v>46006.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.367</v>
       </c>
       <c r="C11">
-        <v>36.298</v>
+        <v>6.033</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45995.10416666666</v>
+        <v>46006.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="C12">
-        <v>15.642</v>
+        <v>6.226</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45995.11458333334</v>
+        <v>46006.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.956</v>
+        <v>2.972</v>
       </c>
       <c r="C13">
-        <v>1.673</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45995.125</v>
+        <v>46006.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C14">
-        <v>18.749</v>
+        <v>3.026</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45995.13541666666</v>
+        <v>46006.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.092</v>
+        <v>0.103</v>
       </c>
       <c r="C15">
-        <v>11.932</v>
+        <v>7.661</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45995.14583333334</v>
+        <v>46006.14583333334</v>
       </c>
       <c r="B16">
-        <v>4.865</v>
+        <v>0.124</v>
       </c>
       <c r="C16">
-        <v>0.367</v>
+        <v>4.172</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45995.15625</v>
+        <v>46006.15625</v>
       </c>
       <c r="B17">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>3.81</v>
+        <v>2.709</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45995.16666666666</v>
+        <v>46006.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.8100000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="C18">
-        <v>5.681</v>
+        <v>15.471</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45995.17708333334</v>
+        <v>46006.17708333334</v>
       </c>
       <c r="B19">
-        <v>1.144</v>
+        <v>0.992</v>
       </c>
       <c r="C19">
-        <v>6.498</v>
+        <v>6.021</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45995.1875</v>
+        <v>46006.1875</v>
       </c>
       <c r="B20">
-        <v>7.342</v>
+        <v>1.401</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45995.19791666666</v>
+        <v>46006.19791666666</v>
       </c>
       <c r="B21">
-        <v>2.543</v>
+        <v>0.718</v>
       </c>
       <c r="C21">
-        <v>8.712999999999999</v>
+        <v>3.187</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45995.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.881</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>11.482</v>
+        <v>21.889</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45995.21875</v>
+        <v>46006.21875</v>
       </c>
       <c r="B23">
-        <v>0.307</v>
+        <v>0.289</v>
       </c>
       <c r="C23">
-        <v>1.253</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45995.22916666666</v>
+        <v>46006.22916666666</v>
       </c>
       <c r="B24">
-        <v>5.354</v>
+        <v>0.499</v>
       </c>
       <c r="C24">
-        <v>0.717</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45995.23958333334</v>
+        <v>46006.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.08</v>
+        <v>5.47</v>
       </c>
       <c r="C25">
-        <v>6.546</v>
+        <v>1.389</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45995.25</v>
+        <v>46006.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="C26">
-        <v>71.91200000000001</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45995.26041666666</v>
+        <v>46006.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.234</v>
       </c>
       <c r="C27">
-        <v>29.821</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45995.27083333334</v>
+        <v>46006.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="C28">
-        <v>38.828</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45995.28125</v>
+        <v>46006.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>21.999</v>
+        <v>4.544</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45995.29166666666</v>
+        <v>46006.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.214</v>
+        <v>0.444</v>
       </c>
       <c r="C30">
-        <v>8.041</v>
+        <v>2.286</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45995.30208333334</v>
+        <v>46006.30208333334</v>
       </c>
       <c r="B31">
-        <v>6.71</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1.856</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45995.3125</v>
-      </c>
-      <c r="B32">
-        <v>8.436999999999999</v>
-      </c>
-      <c r="C32">
-        <v>0.403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45995.32291666666</v>
-      </c>
-      <c r="B33">
-        <v>4.627</v>
-      </c>
-      <c r="C33">
-        <v>0.176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45995.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>4.408</v>
-      </c>
-      <c r="C34">
-        <v>7.875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45995.34375</v>
-      </c>
-      <c r="B35">
-        <v>0.004</v>
-      </c>
-      <c r="C35">
-        <v>7.934</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45995.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="C36">
-        <v>14.465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45995.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>20.877</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45995.375</v>
-      </c>
-      <c r="B38">
-        <v>0.067</v>
-      </c>
-      <c r="C38">
-        <v>18.413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45995.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>34.527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45995.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>61.12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45995.40625</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>48.471</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45995.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>11.127</v>
-      </c>
-      <c r="C42">
-        <v>0.379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45995.42708333334</v>
-      </c>
-      <c r="B43">
-        <v>0.008</v>
-      </c>
-      <c r="C43">
-        <v>5.477</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>45995.4375</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,331 +403,463 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46006</v>
+        <v>46022</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.738</v>
       </c>
       <c r="C2">
-        <v>11.364</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46006.01041666666</v>
+        <v>46022.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.005</v>
+        <v>0.169</v>
       </c>
       <c r="C3">
-        <v>11.286</v>
+        <v>1.205</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46006.02083333334</v>
+        <v>46022.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.7</v>
+        <v>11.834</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46006.03125</v>
+        <v>46022.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>20.788</v>
+        <v>15.21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46006.04166666666</v>
+        <v>46022.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>23.581</v>
+        <v>18.679</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46006.05208333334</v>
+        <v>46022.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.855</v>
       </c>
       <c r="C7">
-        <v>10.778</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46006.0625</v>
+        <v>46022.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="C8">
-        <v>12.671</v>
+        <v>3.118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46006.07291666666</v>
+        <v>46022.07291666666</v>
       </c>
       <c r="B9">
-        <v>2.307</v>
+        <v>3.014</v>
       </c>
       <c r="C9">
-        <v>1.115</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46006.08333333334</v>
+        <v>46022.08333333334</v>
       </c>
       <c r="B10">
-        <v>3.471</v>
+        <v>4.141</v>
       </c>
       <c r="C10">
-        <v>5.077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46006.09375</v>
+        <v>46022.09375</v>
       </c>
       <c r="B11">
-        <v>0.367</v>
+        <v>21.322</v>
       </c>
       <c r="C11">
-        <v>6.033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46006.10416666666</v>
+        <v>46022.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.032</v>
+        <v>43.196</v>
       </c>
       <c r="C12">
-        <v>6.226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46006.11458333334</v>
+        <v>46022.11458333334</v>
       </c>
       <c r="B13">
-        <v>2.972</v>
+        <v>42.58</v>
       </c>
       <c r="C13">
-        <v>0.499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46006.125</v>
+        <v>46022.125</v>
       </c>
       <c r="B14">
-        <v>0.5679999999999999</v>
+        <v>13.042</v>
       </c>
       <c r="C14">
-        <v>3.026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46006.13541666666</v>
+        <v>46022.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.103</v>
+        <v>36.942</v>
       </c>
       <c r="C15">
-        <v>7.661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46006.14583333334</v>
+        <v>46022.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.124</v>
+        <v>19.712</v>
       </c>
       <c r="C16">
-        <v>4.172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46006.15625</v>
+        <v>46022.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="C17">
-        <v>2.709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46006.16666666666</v>
+        <v>46022.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.075</v>
+        <v>1.307</v>
       </c>
       <c r="C18">
-        <v>15.471</v>
+        <v>2.068</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46006.17708333334</v>
+        <v>46022.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.992</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>6.021</v>
+        <v>26.829</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46006.1875</v>
+        <v>46022.1875</v>
       </c>
       <c r="B20">
-        <v>1.401</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.025</v>
+        <v>47.755</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46006.19791666666</v>
+        <v>46022.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.718</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>3.187</v>
+        <v>23.409</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46006.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>21.889</v>
+        <v>24.673</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46006.21875</v>
+        <v>46022.21875</v>
       </c>
       <c r="B23">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>8.550000000000001</v>
+        <v>13.163</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46006.22916666666</v>
+        <v>46022.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.499</v>
+        <v>3.6</v>
       </c>
       <c r="C24">
-        <v>1.314</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46006.23958333334</v>
+        <v>46022.23958333334</v>
       </c>
       <c r="B25">
-        <v>5.47</v>
+        <v>15.688</v>
       </c>
       <c r="C25">
-        <v>1.389</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46006.25</v>
+        <v>46022.25</v>
       </c>
       <c r="B26">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>13.95</v>
+        <v>24.243</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46006.26041666666</v>
+        <v>46022.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.234</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1.93</v>
+        <v>37.087</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46006.27083333334</v>
+        <v>46022.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.31</v>
+        <v>18.589</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46006.28125</v>
+        <v>46022.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>4.544</v>
+        <v>25.015</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46006.29166666666</v>
+        <v>46022.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.444</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>2.286</v>
+        <v>18.029</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46006.30208333334</v>
+        <v>46022.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C31">
+        <v>4.444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>46022.3125</v>
+      </c>
+      <c r="B32">
+        <v>0.008</v>
+      </c>
+      <c r="C32">
+        <v>4.168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>46022.32291666666</v>
+      </c>
+      <c r="B33">
+        <v>0.012</v>
+      </c>
+      <c r="C33">
+        <v>10.778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>46022.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>0.291</v>
+      </c>
+      <c r="C34">
+        <v>9.536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>46022.34375</v>
+      </c>
+      <c r="B35">
+        <v>0.05</v>
+      </c>
+      <c r="C35">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>46022.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>0.092</v>
+      </c>
+      <c r="C36">
+        <v>4.598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>46022.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>13.382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>46022.375</v>
+      </c>
+      <c r="B38">
+        <v>6.584</v>
+      </c>
+      <c r="C38">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>46022.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>0.719</v>
+      </c>
+      <c r="C39">
+        <v>7.978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>46022.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>26.509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>46022.40625</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>40.748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>46022.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>5.782</v>
+      </c>
+      <c r="C42">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>46022.42708333334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,98 +403,98 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B2">
-        <v>3.738</v>
+        <v>12.452</v>
       </c>
       <c r="C2">
-        <v>0.352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46022.01041666666</v>
+        <v>46044.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.169</v>
+        <v>31.705</v>
       </c>
       <c r="C3">
-        <v>1.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46022.02083333334</v>
+        <v>46044.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>33.487</v>
       </c>
       <c r="C4">
-        <v>11.834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46022.03125</v>
+        <v>46044.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>53.634</v>
       </c>
       <c r="C5">
-        <v>15.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46022.04166666666</v>
+        <v>46044.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>32.846</v>
       </c>
       <c r="C6">
-        <v>18.679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46022.05208333334</v>
+        <v>46044.05208333334</v>
       </c>
       <c r="B7">
-        <v>1.855</v>
+        <v>42.672</v>
       </c>
       <c r="C7">
-        <v>1.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46022.0625</v>
+        <v>46044.0625</v>
       </c>
       <c r="B8">
-        <v>0.773</v>
+        <v>22.094</v>
       </c>
       <c r="C8">
-        <v>3.118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46022.07291666666</v>
+        <v>46044.07291666666</v>
       </c>
       <c r="B9">
-        <v>3.014</v>
+        <v>17.777</v>
       </c>
       <c r="C9">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46022.08333333334</v>
+        <v>46044.08333333334</v>
       </c>
       <c r="B10">
-        <v>4.141</v>
+        <v>8.262</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -502,364 +502,243 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46022.09375</v>
+        <v>46044.09375</v>
       </c>
       <c r="B11">
-        <v>21.322</v>
+        <v>0.057</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>13.826</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46022.10416666666</v>
+        <v>46044.10416666666</v>
       </c>
       <c r="B12">
-        <v>43.196</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>13.994</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46022.11458333334</v>
+        <v>46044.11458333334</v>
       </c>
       <c r="B13">
-        <v>42.58</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3.028</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46022.125</v>
+        <v>46044.125</v>
       </c>
       <c r="B14">
-        <v>13.042</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10.455</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46022.13541666666</v>
+        <v>46044.13541666666</v>
       </c>
       <c r="B15">
-        <v>36.942</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.913</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46022.14583333334</v>
+        <v>46044.14583333334</v>
       </c>
       <c r="B16">
-        <v>19.712</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.943</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46022.15625</v>
+        <v>46044.15625</v>
       </c>
       <c r="B17">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46022.16666666666</v>
+        <v>46044.16666666666</v>
       </c>
       <c r="B18">
-        <v>1.307</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.068</v>
+        <v>6.617</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46022.17708333334</v>
+        <v>46044.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>26.829</v>
+        <v>25.675</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46022.1875</v>
+        <v>46044.1875</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>47.755</v>
+        <v>5.335</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46022.19791666666</v>
+        <v>46044.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.067</v>
       </c>
       <c r="C21">
-        <v>23.409</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46022.20833333334</v>
+        <v>46044.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>7.292</v>
       </c>
       <c r="C22">
-        <v>24.673</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46022.21875</v>
+        <v>46044.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>32.407</v>
       </c>
       <c r="C23">
-        <v>13.163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46022.22916666666</v>
+        <v>46044.22916666666</v>
       </c>
       <c r="B24">
-        <v>3.6</v>
+        <v>12.031</v>
       </c>
       <c r="C24">
-        <v>0.416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46022.23958333334</v>
+        <v>46044.23958333334</v>
       </c>
       <c r="B25">
-        <v>15.688</v>
+        <v>1.364</v>
       </c>
       <c r="C25">
-        <v>0.02</v>
+        <v>3.929</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46022.25</v>
+        <v>46044.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>24.243</v>
+        <v>40.812</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46022.26041666666</v>
+        <v>46044.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>37.087</v>
+        <v>29.132</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46022.27083333334</v>
+        <v>46044.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>18.589</v>
+        <v>24.481</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46022.28125</v>
+        <v>46044.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>25.015</v>
+        <v>20.305</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46022.29166666666</v>
+        <v>46044.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>18.029</v>
+        <v>35.283</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46022.30208333334</v>
+        <v>46044.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.004</v>
+        <v>0.059</v>
       </c>
       <c r="C31">
-        <v>4.444</v>
+        <v>20.718</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>46022.3125</v>
+        <v>46044.32291666666</v>
       </c>
       <c r="B32">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>4.168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>46022.32291666666</v>
-      </c>
-      <c r="B33">
-        <v>0.012</v>
-      </c>
-      <c r="C33">
-        <v>10.778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>46022.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>0.291</v>
-      </c>
-      <c r="C34">
-        <v>9.536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>46022.34375</v>
-      </c>
-      <c r="B35">
-        <v>0.05</v>
-      </c>
-      <c r="C35">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>46022.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>0.092</v>
-      </c>
-      <c r="C36">
-        <v>4.598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>46022.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>13.382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>46022.375</v>
-      </c>
-      <c r="B38">
-        <v>6.584</v>
-      </c>
-      <c r="C38">
-        <v>0.163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>46022.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>0.719</v>
-      </c>
-      <c r="C39">
-        <v>7.978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>46022.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>26.509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>46022.40625</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>40.748</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>46022.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>5.782</v>
-      </c>
-      <c r="C42">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>46022.42708333334</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -403,54 +403,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B2">
-        <v>12.452</v>
+        <v>7.048</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46044.01041666666</v>
+        <v>46046.01041666666</v>
       </c>
       <c r="B3">
-        <v>31.705</v>
+        <v>0.482</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46044.02083333334</v>
+        <v>46046.02083333334</v>
       </c>
       <c r="B4">
-        <v>33.487</v>
+        <v>9.106</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46044.03125</v>
+        <v>46046.03125</v>
       </c>
       <c r="B5">
-        <v>53.634</v>
+        <v>7.301</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46044.04166666666</v>
+        <v>46046.04166666666</v>
       </c>
       <c r="B6">
-        <v>32.846</v>
+        <v>4.473</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -458,10 +458,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46044.05208333334</v>
+        <v>46046.05208333334</v>
       </c>
       <c r="B7">
-        <v>42.672</v>
+        <v>3.206</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -469,271 +469,271 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46044.0625</v>
+        <v>46046.0625</v>
       </c>
       <c r="B8">
-        <v>22.094</v>
+        <v>5.522</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46044.07291666666</v>
+        <v>46046.07291666666</v>
       </c>
       <c r="B9">
-        <v>17.777</v>
+        <v>1.594</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46044.08333333334</v>
+        <v>46046.08333333334</v>
       </c>
       <c r="B10">
-        <v>8.262</v>
+        <v>1.749</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46044.09375</v>
+        <v>46046.09375</v>
       </c>
       <c r="B11">
-        <v>0.057</v>
+        <v>24.599</v>
       </c>
       <c r="C11">
-        <v>13.826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46044.10416666666</v>
+        <v>46046.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>10.516</v>
       </c>
       <c r="C12">
-        <v>13.994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46044.11458333334</v>
+        <v>46046.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>12.373</v>
       </c>
       <c r="C13">
-        <v>3.028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46044.125</v>
+        <v>46046.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.932</v>
       </c>
       <c r="C14">
-        <v>10.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46044.13541666666</v>
+        <v>46046.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.591</v>
       </c>
       <c r="C15">
-        <v>3.913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46044.14583333334</v>
+        <v>46046.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="C16">
-        <v>2.943</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46044.15625</v>
+        <v>46046.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="C17">
-        <v>3.704</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46044.16666666666</v>
+        <v>46046.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.222</v>
       </c>
       <c r="C18">
-        <v>6.617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46044.17708333334</v>
+        <v>46046.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.469</v>
       </c>
       <c r="C19">
-        <v>25.675</v>
+        <v>1.432</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46044.1875</v>
+        <v>46046.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.578</v>
       </c>
       <c r="C20">
-        <v>5.335</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46044.19791666666</v>
+        <v>46046.19791666666</v>
       </c>
       <c r="B21">
-        <v>1.067</v>
+        <v>6.254</v>
       </c>
       <c r="C21">
-        <v>3.25</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46044.20833333334</v>
+        <v>46046.20833333334</v>
       </c>
       <c r="B22">
-        <v>7.292</v>
+        <v>2.324</v>
       </c>
       <c r="C22">
-        <v>0.138</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46044.21875</v>
+        <v>46046.21875</v>
       </c>
       <c r="B23">
-        <v>32.407</v>
+        <v>12.165</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46044.22916666666</v>
+        <v>46046.22916666666</v>
       </c>
       <c r="B24">
-        <v>12.031</v>
+        <v>1.51</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46044.23958333334</v>
+        <v>46046.23958333334</v>
       </c>
       <c r="B25">
-        <v>1.364</v>
+        <v>6.293</v>
       </c>
       <c r="C25">
-        <v>3.929</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46044.25</v>
+        <v>46046.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1.112</v>
       </c>
       <c r="C26">
-        <v>40.812</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46044.26041666666</v>
+        <v>46046.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2.104</v>
       </c>
       <c r="C27">
-        <v>29.132</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46044.27083333334</v>
+        <v>46046.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>9.829000000000001</v>
       </c>
       <c r="C28">
-        <v>24.481</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46044.28125</v>
+        <v>46046.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>11.851</v>
       </c>
       <c r="C29">
-        <v>20.305</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46044.29166666666</v>
+        <v>46046.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>16.62</v>
       </c>
       <c r="C30">
-        <v>35.283</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46044.30208333334</v>
+        <v>46046.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.059</v>
+        <v>10.808</v>
       </c>
       <c r="C31">
-        <v>20.718</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>46044.32291666666</v>
+        <v>46046.3125</v>
       </c>
       <c r="B32">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,186 +403,186 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B2">
-        <v>7.048</v>
+        <v>9.788</v>
       </c>
       <c r="C2">
-        <v>0.053</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46046.01041666666</v>
+        <v>46048.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.482</v>
+        <v>37.428</v>
       </c>
       <c r="C3">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46046.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
       <c r="B4">
-        <v>9.106</v>
+        <v>37.133</v>
       </c>
       <c r="C4">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46046.03125</v>
+        <v>46048.03125</v>
       </c>
       <c r="B5">
-        <v>7.301</v>
+        <v>16.765</v>
       </c>
       <c r="C5">
-        <v>0.092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46046.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
       <c r="B6">
-        <v>4.473</v>
+        <v>2.604</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46046.05208333334</v>
+        <v>46048.05208333334</v>
       </c>
       <c r="B7">
-        <v>3.206</v>
+        <v>5.466</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46046.0625</v>
+        <v>46048.0625</v>
       </c>
       <c r="B8">
-        <v>5.522</v>
+        <v>6.062</v>
       </c>
       <c r="C8">
-        <v>0.007</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46046.07291666666</v>
+        <v>46048.07291666666</v>
       </c>
       <c r="B9">
-        <v>1.594</v>
+        <v>20.84</v>
       </c>
       <c r="C9">
-        <v>2.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46046.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
       <c r="B10">
-        <v>1.749</v>
+        <v>4.228</v>
       </c>
       <c r="C10">
-        <v>0.348</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46046.09375</v>
+        <v>46048.09375</v>
       </c>
       <c r="B11">
-        <v>24.599</v>
+        <v>0.681</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.638</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46046.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
       <c r="B12">
-        <v>10.516</v>
+        <v>3.979</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46046.11458333334</v>
+        <v>46048.11458333334</v>
       </c>
       <c r="B13">
-        <v>12.373</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46046.125</v>
+        <v>46048.125</v>
       </c>
       <c r="B14">
-        <v>4.932</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46046.13541666666</v>
+        <v>46048.13541666666</v>
       </c>
       <c r="B15">
-        <v>2.591</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46046.14583333334</v>
+        <v>46048.14583333334</v>
       </c>
       <c r="B16">
-        <v>2.34</v>
+        <v>0.025</v>
       </c>
       <c r="C16">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46046.15625</v>
+        <v>46048.15625</v>
       </c>
       <c r="B17">
-        <v>3.04</v>
+        <v>4.266</v>
       </c>
       <c r="C17">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46046.16666666666</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B18">
-        <v>3.222</v>
+        <v>21.073</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -590,155 +590,298 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46046.17708333334</v>
+        <v>46048.17708333334</v>
       </c>
       <c r="B19">
-        <v>1.469</v>
+        <v>3.969</v>
       </c>
       <c r="C19">
-        <v>1.432</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46046.1875</v>
+        <v>46048.1875</v>
       </c>
       <c r="B20">
-        <v>2.578</v>
+        <v>15.651</v>
       </c>
       <c r="C20">
-        <v>0.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46046.19791666666</v>
+        <v>46048.19791666666</v>
       </c>
       <c r="B21">
-        <v>6.254</v>
+        <v>20.135</v>
       </c>
       <c r="C21">
-        <v>0.308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46046.20833333334</v>
+        <v>46048.20833333334</v>
       </c>
       <c r="B22">
-        <v>2.324</v>
+        <v>28.212</v>
       </c>
       <c r="C22">
-        <v>0.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46046.21875</v>
+        <v>46048.21875</v>
       </c>
       <c r="B23">
-        <v>12.165</v>
+        <v>13.501</v>
       </c>
       <c r="C23">
-        <v>0.475</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46046.22916666666</v>
+        <v>46048.22916666666</v>
       </c>
       <c r="B24">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.94</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46046.23958333334</v>
+        <v>46048.23958333334</v>
       </c>
       <c r="B25">
-        <v>6.293</v>
+        <v>5.02</v>
       </c>
       <c r="C25">
-        <v>0.067</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46046.25</v>
+        <v>46048.25</v>
       </c>
       <c r="B26">
-        <v>1.112</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.09</v>
+        <v>14.661</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46046.26041666666</v>
+        <v>46048.26041666666</v>
       </c>
       <c r="B27">
-        <v>2.104</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.661</v>
+        <v>20.623</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46046.27083333334</v>
+        <v>46048.27083333334</v>
       </c>
       <c r="B28">
-        <v>9.829000000000001</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.384</v>
+        <v>70.76300000000001</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46046.28125</v>
+        <v>46048.28125</v>
       </c>
       <c r="B29">
-        <v>11.851</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.021</v>
+        <v>50.94</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46046.29166666666</v>
+        <v>46048.29166666666</v>
       </c>
       <c r="B30">
-        <v>16.62</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.263</v>
+        <v>43.798</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46046.30208333334</v>
+        <v>46048.30208333334</v>
       </c>
       <c r="B31">
-        <v>10.808</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.042</v>
+        <v>29.032</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>46046.3125</v>
+        <v>46048.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="C32">
+        <v>3.997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>46048.32291666666</v>
+      </c>
+      <c r="B33">
+        <v>4.742</v>
+      </c>
+      <c r="C33">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>46048.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>0.706</v>
+      </c>
+      <c r="C34">
+        <v>4.159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>46048.34375</v>
+      </c>
+      <c r="B35">
+        <v>2.082</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>46048.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>6.09</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>46048.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>6.737</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>46048.375</v>
+      </c>
+      <c r="B38">
+        <v>36.113</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>46048.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>26.608</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>46048.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>15.146</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>46048.40625</v>
+      </c>
+      <c r="B41">
+        <v>3.547</v>
+      </c>
+      <c r="C41">
+        <v>2.838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>46048.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>7.613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>46048.42708333334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>19.572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>46048.4375</v>
+      </c>
+      <c r="B44">
+        <v>8.071999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>46048.44791666666</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,21 +403,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B2">
-        <v>9.788</v>
+        <v>2.384</v>
       </c>
       <c r="C2">
-        <v>0.275</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46048.01041666666</v>
+        <v>46049.01041666666</v>
       </c>
       <c r="B3">
-        <v>37.428</v>
+        <v>20.688</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -425,395 +425,395 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46048.02083333334</v>
+        <v>46049.02083333334</v>
       </c>
       <c r="B4">
-        <v>37.133</v>
+        <v>6.1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>15.035</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46048.03125</v>
+        <v>46049.03125</v>
       </c>
       <c r="B5">
-        <v>16.765</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>39.406</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46048.04166666666</v>
+        <v>46049.04166666666</v>
       </c>
       <c r="B6">
-        <v>2.604</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004</v>
+        <v>32.894</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46048.05208333334</v>
+        <v>46049.05208333334</v>
       </c>
       <c r="B7">
-        <v>5.466</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007</v>
+        <v>46.296</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46048.0625</v>
+        <v>46049.0625</v>
       </c>
       <c r="B8">
-        <v>6.062</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.068</v>
+        <v>44.092</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46048.07291666666</v>
+        <v>46049.07291666666</v>
       </c>
       <c r="B9">
-        <v>20.84</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>31.848</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46048.08333333334</v>
+        <v>46049.08333333334</v>
       </c>
       <c r="B10">
-        <v>4.228</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.965</v>
+        <v>29.837</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46048.09375</v>
+        <v>46049.09375</v>
       </c>
       <c r="B11">
-        <v>0.681</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.638</v>
+        <v>9.037000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46048.10416666666</v>
+        <v>46049.10416666666</v>
       </c>
       <c r="B12">
-        <v>3.979</v>
+        <v>15.512</v>
       </c>
       <c r="C12">
-        <v>0.546</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46048.11458333334</v>
+        <v>46049.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>17.195</v>
       </c>
       <c r="C13">
-        <v>0.503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46048.125</v>
+        <v>46049.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>20.008</v>
       </c>
       <c r="C14">
-        <v>0.594</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46048.13541666666</v>
+        <v>46049.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>14.954</v>
       </c>
       <c r="C15">
-        <v>1.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46048.14583333334</v>
+        <v>46049.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.025</v>
+        <v>1.608</v>
       </c>
       <c r="C16">
-        <v>0.013</v>
+        <v>2.702</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46048.15625</v>
+        <v>46049.15625</v>
       </c>
       <c r="B17">
-        <v>4.266</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.032</v>
+        <v>8.842000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46048.16666666666</v>
+        <v>46049.16666666666</v>
       </c>
       <c r="B18">
-        <v>21.073</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>19.031</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46048.17708333334</v>
+        <v>46049.17708333334</v>
       </c>
       <c r="B19">
-        <v>3.969</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02</v>
+        <v>26.239</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46048.1875</v>
+        <v>46049.1875</v>
       </c>
       <c r="B20">
-        <v>15.651</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>22.069</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46048.19791666666</v>
+        <v>46049.19791666666</v>
       </c>
       <c r="B21">
-        <v>20.135</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>20.984</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46048.20833333334</v>
+        <v>46049.20833333334</v>
       </c>
       <c r="B22">
-        <v>28.212</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>37.819</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46048.21875</v>
+        <v>46049.21875</v>
       </c>
       <c r="B23">
-        <v>13.501</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.108</v>
+        <v>20.345</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46048.22916666666</v>
+        <v>46049.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.47</v>
+        <v>20.799</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46048.23958333334</v>
+        <v>46049.23958333334</v>
       </c>
       <c r="B25">
-        <v>5.02</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.477</v>
+        <v>25.395</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46048.25</v>
+        <v>46049.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>14.661</v>
+        <v>37.739</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46048.26041666666</v>
+        <v>46049.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>20.623</v>
+        <v>25.783</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46048.27083333334</v>
+        <v>46049.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.738</v>
       </c>
       <c r="C28">
-        <v>70.76300000000001</v>
+        <v>4.887</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46048.28125</v>
+        <v>46049.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.908</v>
       </c>
       <c r="C29">
-        <v>50.94</v>
+        <v>1.745</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46048.29166666666</v>
+        <v>46049.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="C30">
-        <v>43.798</v>
+        <v>18.724</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46048.30208333334</v>
+        <v>46049.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.926</v>
       </c>
       <c r="C31">
-        <v>29.032</v>
+        <v>5.121</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>46048.3125</v>
+        <v>46049.3125</v>
       </c>
       <c r="B32">
-        <v>0.034</v>
+        <v>1.683</v>
       </c>
       <c r="C32">
-        <v>3.997</v>
+        <v>2.098</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>46048.32291666666</v>
+        <v>46049.32291666666</v>
       </c>
       <c r="B33">
-        <v>4.742</v>
+        <v>0.845</v>
       </c>
       <c r="C33">
-        <v>0.8100000000000001</v>
+        <v>3.022</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>46048.33333333334</v>
+        <v>46049.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.706</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C34">
-        <v>4.159</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>46048.34375</v>
+        <v>46049.34375</v>
       </c>
       <c r="B35">
-        <v>2.082</v>
+        <v>0.08</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>8.590999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>46048.35416666666</v>
+        <v>46049.35416666666</v>
       </c>
       <c r="B36">
-        <v>6.09</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>9.808999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>46048.36458333334</v>
+        <v>46049.36458333334</v>
       </c>
       <c r="B37">
-        <v>6.737</v>
+        <v>0.427</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3.753</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>46048.375</v>
+        <v>46049.375</v>
       </c>
       <c r="B38">
-        <v>36.113</v>
+        <v>11.384</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>46048.38541666666</v>
+        <v>46049.38541666666</v>
       </c>
       <c r="B39">
-        <v>26.608</v>
+        <v>17.424</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>46048.39583333334</v>
+        <v>46049.39583333334</v>
       </c>
       <c r="B40">
-        <v>15.146</v>
+        <v>21.329</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -832,56 +832,78 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>46048.40625</v>
+        <v>46049.40625</v>
       </c>
       <c r="B41">
-        <v>3.547</v>
+        <v>23.487</v>
       </c>
       <c r="C41">
-        <v>2.838</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>46048.41666666666</v>
+        <v>46049.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>18.029</v>
       </c>
       <c r="C42">
-        <v>7.613</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>46048.42708333334</v>
+        <v>46049.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>14.877</v>
       </c>
       <c r="C43">
-        <v>19.572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>46048.4375</v>
+        <v>46049.4375</v>
       </c>
       <c r="B44">
-        <v>8.071999999999999</v>
+        <v>27.857</v>
       </c>
       <c r="C44">
-        <v>0.286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>46048.44791666666</v>
+        <v>46049.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>23.297</v>
       </c>
       <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>46049.45833333334</v>
+      </c>
+      <c r="B46">
+        <v>9.247999999999999</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>46049.46875</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,131 +403,131 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46049</v>
+        <v>46056</v>
       </c>
       <c r="B2">
-        <v>2.384</v>
+        <v>5.63</v>
       </c>
       <c r="C2">
-        <v>13.87</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46049.01041666666</v>
+        <v>46056.01041666666</v>
       </c>
       <c r="B3">
-        <v>20.688</v>
+        <v>3.721</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46049.02083333334</v>
+        <v>46056.02083333334</v>
       </c>
       <c r="B4">
-        <v>6.1</v>
+        <v>5.369</v>
       </c>
       <c r="C4">
-        <v>15.035</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46049.03125</v>
+        <v>46056.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>17.251</v>
       </c>
       <c r="C5">
-        <v>39.406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46049.04166666666</v>
+        <v>46056.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.608</v>
       </c>
       <c r="C6">
-        <v>32.894</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46049.05208333334</v>
+        <v>46056.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5.79</v>
       </c>
       <c r="C7">
-        <v>46.296</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46049.0625</v>
+        <v>46056.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>12.878</v>
       </c>
       <c r="C8">
-        <v>44.092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46049.07291666666</v>
+        <v>46056.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.363</v>
       </c>
       <c r="C9">
-        <v>31.848</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46049.08333333334</v>
+        <v>46056.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>18.51</v>
       </c>
       <c r="C10">
-        <v>29.837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46049.09375</v>
+        <v>46056.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>9.106</v>
       </c>
       <c r="C11">
-        <v>9.037000000000001</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46049.10416666666</v>
+        <v>46056.10416666666</v>
       </c>
       <c r="B12">
-        <v>15.512</v>
+        <v>4.966</v>
       </c>
       <c r="C12">
-        <v>2.86</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46049.11458333334</v>
+        <v>46056.11458333334</v>
       </c>
       <c r="B13">
-        <v>17.195</v>
+        <v>12.135</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -535,21 +535,21 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46049.125</v>
+        <v>46056.125</v>
       </c>
       <c r="B14">
-        <v>20.008</v>
+        <v>7.856</v>
       </c>
       <c r="C14">
-        <v>0.008</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46049.13541666666</v>
+        <v>46056.13541666666</v>
       </c>
       <c r="B15">
-        <v>14.954</v>
+        <v>9.939</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -557,307 +557,307 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46049.14583333334</v>
+        <v>46056.14583333334</v>
       </c>
       <c r="B16">
-        <v>1.608</v>
+        <v>15.076</v>
       </c>
       <c r="C16">
-        <v>2.702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46049.15625</v>
+        <v>46056.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6.875</v>
       </c>
       <c r="C17">
-        <v>8.842000000000001</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46049.16666666666</v>
+        <v>46056.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>15.514</v>
       </c>
       <c r="C18">
-        <v>19.031</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46049.17708333334</v>
+        <v>46056.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>23.624</v>
       </c>
       <c r="C19">
-        <v>26.239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46049.1875</v>
+        <v>46056.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>7.982</v>
       </c>
       <c r="C20">
-        <v>22.069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46049.19791666666</v>
+        <v>46056.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>24.11</v>
       </c>
       <c r="C21">
-        <v>20.984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46049.20833333334</v>
+        <v>46056.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.651</v>
       </c>
       <c r="C22">
-        <v>37.819</v>
+        <v>5.887</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46049.21875</v>
+        <v>46056.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>6.321</v>
       </c>
       <c r="C23">
-        <v>20.345</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46049.22916666666</v>
+        <v>46056.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.636</v>
       </c>
       <c r="C24">
-        <v>20.799</v>
+        <v>2.821</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46049.23958333334</v>
+        <v>46056.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>8.433</v>
       </c>
       <c r="C25">
-        <v>25.395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46049.25</v>
+        <v>46056.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="C26">
-        <v>37.739</v>
+        <v>7.406</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46049.26041666666</v>
+        <v>46056.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="C27">
-        <v>25.783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46049.27083333334</v>
+        <v>46056.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.738</v>
+        <v>7.466</v>
       </c>
       <c r="C28">
-        <v>4.887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46049.28125</v>
+        <v>46056.28125</v>
       </c>
       <c r="B29">
-        <v>0.908</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C29">
-        <v>1.745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46049.29166666666</v>
+        <v>46056.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.008</v>
+        <v>6.824</v>
       </c>
       <c r="C30">
-        <v>18.724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46049.30208333334</v>
+        <v>46056.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.926</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C31">
-        <v>5.121</v>
+        <v>1.071</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>46049.3125</v>
+        <v>46056.3125</v>
       </c>
       <c r="B32">
-        <v>1.683</v>
+        <v>0.074</v>
       </c>
       <c r="C32">
-        <v>2.098</v>
+        <v>1.898</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>46049.32291666666</v>
+        <v>46056.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.845</v>
+        <v>0.616</v>
       </c>
       <c r="C33">
-        <v>3.022</v>
+        <v>3.514</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>46049.33333333334</v>
+        <v>46056.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>10.32</v>
+        <v>19.937</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>46049.34375</v>
+        <v>46056.34375</v>
       </c>
       <c r="B35">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>8.590999999999999</v>
+        <v>12.123</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>46049.35416666666</v>
+        <v>46056.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2.026</v>
       </c>
       <c r="C36">
-        <v>9.808999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>46049.36458333334</v>
+        <v>46056.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.427</v>
+        <v>0.131</v>
       </c>
       <c r="C37">
-        <v>3.753</v>
+        <v>7.083</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>46049.375</v>
+        <v>46056.375</v>
       </c>
       <c r="B38">
-        <v>11.384</v>
+        <v>4.382</v>
       </c>
       <c r="C38">
-        <v>0.727</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>46049.38541666666</v>
+        <v>46056.38541666666</v>
       </c>
       <c r="B39">
-        <v>17.424</v>
+        <v>0.24</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>46049.39583333334</v>
+        <v>46056.39583333334</v>
       </c>
       <c r="B40">
-        <v>21.329</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>12.119</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>46049.40625</v>
+        <v>46056.40625</v>
       </c>
       <c r="B41">
-        <v>23.487</v>
+        <v>0.002</v>
       </c>
       <c r="C41">
-        <v>0.008</v>
+        <v>17.915</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>46049.41666666666</v>
+        <v>46056.41666666666</v>
       </c>
       <c r="B42">
-        <v>18.029</v>
+        <v>0.653</v>
       </c>
       <c r="C42">
-        <v>0.066</v>
+        <v>4.153</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>46049.42708333334</v>
+        <v>46056.42708333334</v>
       </c>
       <c r="B43">
-        <v>14.877</v>
+        <v>1.402</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -865,45 +865,100 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>46049.4375</v>
+        <v>46056.4375</v>
       </c>
       <c r="B44">
-        <v>27.857</v>
+        <v>0.158</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>19.516</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>46049.44791666666</v>
+        <v>46056.44791666666</v>
       </c>
       <c r="B45">
-        <v>23.297</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>46049.45833333334</v>
+        <v>46056.45833333334</v>
       </c>
       <c r="B46">
-        <v>9.247999999999999</v>
+        <v>4.261</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2.079</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>46049.46875</v>
+        <v>46056.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1.283</v>
       </c>
       <c r="C47">
+        <v>3.205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>46056.47916666666</v>
+      </c>
+      <c r="B48">
+        <v>1.261</v>
+      </c>
+      <c r="C48">
+        <v>1.158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>46056.48958333334</v>
+      </c>
+      <c r="B49">
+        <v>2.389</v>
+      </c>
+      <c r="C49">
+        <v>0.5669999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>46056.5</v>
+      </c>
+      <c r="B50">
+        <v>1.821</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>46056.51041666666</v>
+      </c>
+      <c r="B51">
+        <v>0.863</v>
+      </c>
+      <c r="C51">
+        <v>4.529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>46056.53125</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,43 +403,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46056</v>
+        <v>46069</v>
       </c>
       <c r="B2">
-        <v>5.63</v>
+        <v>0.436</v>
       </c>
       <c r="C2">
-        <v>0.037</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46056.01041666666</v>
+        <v>46069.01041666666</v>
       </c>
       <c r="B3">
-        <v>3.721</v>
+        <v>3.246</v>
       </c>
       <c r="C3">
-        <v>1.744</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46056.02083333334</v>
+        <v>46069.02083333334</v>
       </c>
       <c r="B4">
-        <v>5.369</v>
+        <v>7.955</v>
       </c>
       <c r="C4">
-        <v>0.324</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46056.03125</v>
+        <v>46069.03125</v>
       </c>
       <c r="B5">
-        <v>17.251</v>
+        <v>14.818</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -447,54 +447,54 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46056.04166666666</v>
+        <v>46069.04166666666</v>
       </c>
       <c r="B6">
-        <v>3.608</v>
+        <v>43.858</v>
       </c>
       <c r="C6">
-        <v>3.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46056.05208333334</v>
+        <v>46069.05208333334</v>
       </c>
       <c r="B7">
-        <v>5.79</v>
+        <v>14.567</v>
       </c>
       <c r="C7">
-        <v>0.618</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46056.0625</v>
+        <v>46069.0625</v>
       </c>
       <c r="B8">
-        <v>12.878</v>
+        <v>1.603</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.411</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46056.07291666666</v>
+        <v>46069.07291666666</v>
       </c>
       <c r="B9">
-        <v>2.363</v>
+        <v>16.822</v>
       </c>
       <c r="C9">
-        <v>0.318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46056.08333333334</v>
+        <v>46069.08333333334</v>
       </c>
       <c r="B10">
-        <v>18.51</v>
+        <v>13.14</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -502,219 +502,219 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46056.09375</v>
+        <v>46069.09375</v>
       </c>
       <c r="B11">
-        <v>9.106</v>
+        <v>1.395</v>
       </c>
       <c r="C11">
-        <v>0.484</v>
+        <v>6.873</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46056.10416666666</v>
+        <v>46069.10416666666</v>
       </c>
       <c r="B12">
-        <v>4.966</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.114</v>
+        <v>6.279</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46056.11458333334</v>
+        <v>46069.11458333334</v>
       </c>
       <c r="B13">
-        <v>12.135</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.055</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46056.125</v>
+        <v>46069.125</v>
       </c>
       <c r="B14">
-        <v>7.856</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.926</v>
+        <v>2.921</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46056.13541666666</v>
+        <v>46069.13541666666</v>
       </c>
       <c r="B15">
-        <v>9.939</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.729</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46056.14583333334</v>
+        <v>46069.14583333334</v>
       </c>
       <c r="B16">
-        <v>15.076</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>10.381</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46056.15625</v>
+        <v>46069.15625</v>
       </c>
       <c r="B17">
-        <v>6.875</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.112</v>
+        <v>3.923</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46056.16666666666</v>
+        <v>46069.16666666666</v>
       </c>
       <c r="B18">
-        <v>15.514</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.008</v>
+        <v>14.128</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46056.17708333334</v>
+        <v>46069.17708333334</v>
       </c>
       <c r="B19">
-        <v>23.624</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>13.615</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46056.1875</v>
+        <v>46069.1875</v>
       </c>
       <c r="B20">
-        <v>7.982</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>29.239</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46056.19791666666</v>
+        <v>46069.19791666666</v>
       </c>
       <c r="B21">
-        <v>24.11</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>16.783</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46056.20833333334</v>
+        <v>46069.20833333334</v>
       </c>
       <c r="B22">
-        <v>1.651</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>5.887</v>
+        <v>39.084</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46056.21875</v>
+        <v>46069.21875</v>
       </c>
       <c r="B23">
-        <v>6.321</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.027</v>
+        <v>9.753</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46056.22916666666</v>
+        <v>46069.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.636</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.821</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46056.23958333334</v>
+        <v>46069.23958333334</v>
       </c>
       <c r="B25">
-        <v>8.433</v>
+        <v>6.891</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.471</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46056.25</v>
+        <v>46069.25</v>
       </c>
       <c r="B26">
-        <v>0.106</v>
+        <v>0.31</v>
       </c>
       <c r="C26">
-        <v>7.406</v>
+        <v>18.083</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46056.26041666666</v>
+        <v>46069.26041666666</v>
       </c>
       <c r="B27">
-        <v>3.375</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>27.766</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46056.27083333334</v>
+        <v>46069.27083333334</v>
       </c>
       <c r="B28">
-        <v>7.466</v>
+        <v>0.063</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46056.28125</v>
+        <v>46069.28125</v>
       </c>
       <c r="B29">
-        <v>0.6850000000000001</v>
+        <v>14.931</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46056.29166666666</v>
+        <v>46069.29166666666</v>
       </c>
       <c r="B30">
-        <v>6.824</v>
+        <v>28.824</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -722,243 +722,23 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46056.30208333334</v>
+        <v>46069.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.6919999999999999</v>
+        <v>1.473</v>
       </c>
       <c r="C31">
-        <v>1.071</v>
+        <v>1.035</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>46056.3125</v>
+        <v>46069.3125</v>
       </c>
       <c r="B32">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1.898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>46056.32291666666</v>
-      </c>
-      <c r="B33">
-        <v>0.616</v>
-      </c>
-      <c r="C33">
-        <v>3.514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>46056.33333333334</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>19.937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>46056.34375</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>12.123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>46056.35416666666</v>
-      </c>
-      <c r="B36">
-        <v>2.026</v>
-      </c>
-      <c r="C36">
-        <v>0.07099999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>46056.36458333334</v>
-      </c>
-      <c r="B37">
-        <v>0.131</v>
-      </c>
-      <c r="C37">
-        <v>7.083</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>46056.375</v>
-      </c>
-      <c r="B38">
-        <v>4.382</v>
-      </c>
-      <c r="C38">
-        <v>0.708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>46056.38541666666</v>
-      </c>
-      <c r="B39">
-        <v>0.24</v>
-      </c>
-      <c r="C39">
-        <v>8.720000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>46056.39583333334</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>12.119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>46056.40625</v>
-      </c>
-      <c r="B41">
-        <v>0.002</v>
-      </c>
-      <c r="C41">
-        <v>17.915</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>46056.41666666666</v>
-      </c>
-      <c r="B42">
-        <v>0.653</v>
-      </c>
-      <c r="C42">
-        <v>4.153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>46056.42708333334</v>
-      </c>
-      <c r="B43">
-        <v>1.402</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>46056.4375</v>
-      </c>
-      <c r="B44">
-        <v>0.158</v>
-      </c>
-      <c r="C44">
-        <v>19.516</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>46056.44791666666</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>30.03</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>46056.45833333334</v>
-      </c>
-      <c r="B46">
-        <v>4.261</v>
-      </c>
-      <c r="C46">
-        <v>2.079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>46056.46875</v>
-      </c>
-      <c r="B47">
-        <v>1.283</v>
-      </c>
-      <c r="C47">
-        <v>3.205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>46056.47916666666</v>
-      </c>
-      <c r="B48">
-        <v>1.261</v>
-      </c>
-      <c r="C48">
-        <v>1.158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>46056.48958333334</v>
-      </c>
-      <c r="B49">
-        <v>2.389</v>
-      </c>
-      <c r="C49">
-        <v>0.5669999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
-        <v>46056.5</v>
-      </c>
-      <c r="B50">
-        <v>1.821</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
-        <v>46056.51041666666</v>
-      </c>
-      <c r="B51">
-        <v>0.863</v>
-      </c>
-      <c r="C51">
-        <v>4.529</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>46056.53125</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,54 +403,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46069</v>
+        <v>46070</v>
       </c>
       <c r="B2">
-        <v>0.436</v>
+        <v>1.868</v>
       </c>
       <c r="C2">
-        <v>3.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46069.01041666666</v>
+        <v>46070.01041666666</v>
       </c>
       <c r="B3">
-        <v>3.246</v>
+        <v>3.637</v>
       </c>
       <c r="C3">
-        <v>0.997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46069.02083333334</v>
+        <v>46070.02083333334</v>
       </c>
       <c r="B4">
-        <v>7.955</v>
+        <v>1.761</v>
       </c>
       <c r="C4">
-        <v>0.176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46069.03125</v>
+        <v>46070.03125</v>
       </c>
       <c r="B5">
-        <v>14.818</v>
+        <v>2.187</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46069.04166666666</v>
+        <v>46070.04166666666</v>
       </c>
       <c r="B6">
-        <v>43.858</v>
+        <v>1.902</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -458,43 +458,43 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46069.05208333334</v>
+        <v>46070.05208333334</v>
       </c>
       <c r="B7">
-        <v>14.567</v>
+        <v>8.786</v>
       </c>
       <c r="C7">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46069.0625</v>
+        <v>46070.0625</v>
       </c>
       <c r="B8">
-        <v>1.603</v>
+        <v>1.81</v>
       </c>
       <c r="C8">
-        <v>2.411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46069.07291666666</v>
+        <v>46070.07291666666</v>
       </c>
       <c r="B9">
-        <v>16.822</v>
+        <v>2.175</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.9370000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46069.08333333334</v>
+        <v>46070.08333333334</v>
       </c>
       <c r="B10">
-        <v>13.14</v>
+        <v>12.251</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -502,219 +502,219 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46069.09375</v>
+        <v>46070.09375</v>
       </c>
       <c r="B11">
-        <v>1.395</v>
+        <v>24.604</v>
       </c>
       <c r="C11">
-        <v>6.873</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46069.10416666666</v>
+        <v>46070.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>36.973</v>
       </c>
       <c r="C12">
-        <v>6.279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46069.11458333334</v>
+        <v>46070.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>32.228</v>
       </c>
       <c r="C13">
-        <v>2.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46069.125</v>
+        <v>46070.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>14.386</v>
       </c>
       <c r="C14">
-        <v>2.921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46069.13541666666</v>
+        <v>46070.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>20.857</v>
       </c>
       <c r="C15">
-        <v>2.729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46069.14583333334</v>
+        <v>46070.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>21.028</v>
       </c>
       <c r="C16">
-        <v>10.381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46069.15625</v>
+        <v>46070.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>16.087</v>
       </c>
       <c r="C17">
-        <v>3.923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46069.16666666666</v>
+        <v>46070.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>9.474</v>
       </c>
       <c r="C18">
-        <v>14.128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46069.17708333334</v>
+        <v>46070.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>38.836</v>
       </c>
       <c r="C19">
-        <v>13.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46069.1875</v>
+        <v>46070.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>26.323</v>
       </c>
       <c r="C20">
-        <v>29.239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46069.19791666666</v>
+        <v>46070.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.648</v>
       </c>
       <c r="C21">
-        <v>16.783</v>
+        <v>1.619</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46069.20833333334</v>
+        <v>46070.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>39.084</v>
+        <v>20.901</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46069.21875</v>
+        <v>46070.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.753</v>
+        <v>12.428</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46069.22916666666</v>
+        <v>46070.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.941</v>
       </c>
       <c r="C24">
-        <v>3.73</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46069.23958333334</v>
+        <v>46070.23958333334</v>
       </c>
       <c r="B25">
-        <v>6.891</v>
+        <v>6.279</v>
       </c>
       <c r="C25">
-        <v>1.471</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46069.25</v>
+        <v>46070.25</v>
       </c>
       <c r="B26">
-        <v>0.31</v>
+        <v>0.077</v>
       </c>
       <c r="C26">
-        <v>18.083</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46069.26041666666</v>
+        <v>46070.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>14.405</v>
       </c>
       <c r="C27">
-        <v>27.766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46069.27083333334</v>
+        <v>46070.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.063</v>
+        <v>31.983</v>
       </c>
       <c r="C28">
-        <v>3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46069.28125</v>
+        <v>46070.28125</v>
       </c>
       <c r="B29">
-        <v>14.931</v>
+        <v>37.544</v>
       </c>
       <c r="C29">
-        <v>0.252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46069.29166666666</v>
+        <v>46070.29166666666</v>
       </c>
       <c r="B30">
-        <v>28.824</v>
+        <v>22.599</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -722,23 +722,12 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46069.30208333334</v>
+        <v>46070.3125</v>
       </c>
       <c r="B31">
-        <v>1.473</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1.035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>46069.3125</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -403,32 +403,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="B2">
-        <v>1.868</v>
+        <v>10.333</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46070.01041666666</v>
+        <v>46071.01041666666</v>
       </c>
       <c r="B3">
-        <v>3.637</v>
+        <v>5.201</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46070.02083333334</v>
+        <v>46071.02083333334</v>
       </c>
       <c r="B4">
-        <v>1.761</v>
+        <v>22.104</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -436,21 +436,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46070.03125</v>
+        <v>46071.03125</v>
       </c>
       <c r="B5">
-        <v>2.187</v>
+        <v>28.747</v>
       </c>
       <c r="C5">
-        <v>0.095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46070.04166666666</v>
+        <v>46071.04166666666</v>
       </c>
       <c r="B6">
-        <v>1.902</v>
+        <v>7.88</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -458,10 +458,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46070.05208333334</v>
+        <v>46071.05208333334</v>
       </c>
       <c r="B7">
-        <v>8.786</v>
+        <v>9.317</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -469,10 +469,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46070.0625</v>
+        <v>46071.0625</v>
       </c>
       <c r="B8">
-        <v>1.81</v>
+        <v>10.206</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -480,21 +480,21 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46070.07291666666</v>
+        <v>46071.07291666666</v>
       </c>
       <c r="B9">
-        <v>2.175</v>
+        <v>22.984</v>
       </c>
       <c r="C9">
-        <v>0.9370000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46070.08333333334</v>
+        <v>46071.08333333334</v>
       </c>
       <c r="B10">
-        <v>12.251</v>
+        <v>16.757</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -502,21 +502,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46070.09375</v>
+        <v>46071.09375</v>
       </c>
       <c r="B11">
-        <v>24.604</v>
+        <v>7.853</v>
       </c>
       <c r="C11">
-        <v>0.06</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46070.10416666666</v>
+        <v>46071.10416666666</v>
       </c>
       <c r="B12">
-        <v>36.973</v>
+        <v>29.304</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46070.11458333334</v>
+        <v>46071.11458333334</v>
       </c>
       <c r="B13">
-        <v>32.228</v>
+        <v>46.916</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46070.125</v>
+        <v>46071.125</v>
       </c>
       <c r="B14">
-        <v>14.386</v>
+        <v>17.701</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -546,10 +546,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46070.13541666666</v>
+        <v>46071.13541666666</v>
       </c>
       <c r="B15">
-        <v>20.857</v>
+        <v>10.935</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46070.14583333334</v>
+        <v>46071.14583333334</v>
       </c>
       <c r="B16">
-        <v>21.028</v>
+        <v>26.933</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46070.15625</v>
+        <v>46071.15625</v>
       </c>
       <c r="B17">
-        <v>16.087</v>
+        <v>41.368</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -579,32 +579,32 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46070.16666666666</v>
+        <v>46071.16666666666</v>
       </c>
       <c r="B18">
-        <v>9.474</v>
+        <v>2.442</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.145</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46070.17708333334</v>
+        <v>46071.17708333334</v>
       </c>
       <c r="B19">
-        <v>38.836</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46070.1875</v>
+        <v>46071.1875</v>
       </c>
       <c r="B20">
-        <v>26.323</v>
+        <v>24.412</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -612,117 +612,117 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46070.19791666666</v>
+        <v>46071.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.648</v>
+        <v>7.959</v>
       </c>
       <c r="C21">
-        <v>1.619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46070.20833333334</v>
+        <v>46071.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C22">
-        <v>20.901</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46070.21875</v>
+        <v>46071.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="C23">
-        <v>12.428</v>
+        <v>9.137</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46070.22916666666</v>
+        <v>46071.22916666666</v>
       </c>
       <c r="B24">
-        <v>5.941</v>
+        <v>0.919</v>
       </c>
       <c r="C24">
-        <v>0.407</v>
+        <v>4.172</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46070.23958333334</v>
+        <v>46071.23958333334</v>
       </c>
       <c r="B25">
-        <v>6.279</v>
+        <v>9.045999999999999</v>
       </c>
       <c r="C25">
-        <v>0.383</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46070.25</v>
+        <v>46071.25</v>
       </c>
       <c r="B26">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>3.59</v>
+        <v>10.637</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46070.26041666666</v>
+        <v>46071.26041666666</v>
       </c>
       <c r="B27">
-        <v>14.405</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>17.986</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46070.27083333334</v>
+        <v>46071.27083333334</v>
       </c>
       <c r="B28">
-        <v>31.983</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>17.288</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46070.28125</v>
+        <v>46071.28125</v>
       </c>
       <c r="B29">
-        <v>37.544</v>
+        <v>1.287</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2.822</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46070.29166666666</v>
+        <v>46071.29166666666</v>
       </c>
       <c r="B30">
-        <v>22.599</v>
+        <v>20.425</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46070.3125</v>
+        <v>46071.3125</v>
       </c>
       <c r="B31">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -403,32 +403,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46071</v>
+        <v>46073</v>
       </c>
       <c r="B2">
-        <v>10.333</v>
+        <v>3.901</v>
       </c>
       <c r="C2">
-        <v>0.051</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46071.01041666666</v>
+        <v>46073.01041666666</v>
       </c>
       <c r="B3">
-        <v>5.201</v>
+        <v>0.377</v>
       </c>
       <c r="C3">
-        <v>0.076</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46071.02083333334</v>
+        <v>46073.02083333334</v>
       </c>
       <c r="B4">
-        <v>22.104</v>
+        <v>18.573</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -436,10 +436,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46071.03125</v>
+        <v>46073.03125</v>
       </c>
       <c r="B5">
-        <v>28.747</v>
+        <v>20.176</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -447,10 +447,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46071.04166666666</v>
+        <v>46073.04166666666</v>
       </c>
       <c r="B6">
-        <v>7.88</v>
+        <v>6.017</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -458,21 +458,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46071.05208333334</v>
+        <v>46073.05208333334</v>
       </c>
       <c r="B7">
-        <v>9.317</v>
+        <v>6.662</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46071.0625</v>
+        <v>46073.0625</v>
       </c>
       <c r="B8">
-        <v>10.206</v>
+        <v>22.576</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -480,131 +480,131 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46071.07291666666</v>
+        <v>46073.07291666666</v>
       </c>
       <c r="B9">
-        <v>22.984</v>
+        <v>6.944</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46071.08333333334</v>
+        <v>46073.08333333334</v>
       </c>
       <c r="B10">
-        <v>16.757</v>
+        <v>1.151</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5.161</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46071.09375</v>
+        <v>46073.09375</v>
       </c>
       <c r="B11">
-        <v>7.853</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.342</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46071.10416666666</v>
+        <v>46073.10416666666</v>
       </c>
       <c r="B12">
-        <v>29.304</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.363</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46071.11458333334</v>
+        <v>46073.11458333334</v>
       </c>
       <c r="B13">
-        <v>46.916</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.529</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46071.125</v>
+        <v>46073.125</v>
       </c>
       <c r="B14">
-        <v>17.701</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3.005</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46071.13541666666</v>
+        <v>46073.13541666666</v>
       </c>
       <c r="B15">
-        <v>10.935</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>18.493</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46071.14583333334</v>
+        <v>46073.14583333334</v>
       </c>
       <c r="B16">
-        <v>26.933</v>
+        <v>0.237</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.013</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46071.15625</v>
+        <v>46073.15625</v>
       </c>
       <c r="B17">
-        <v>41.368</v>
+        <v>13.681</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46071.16666666666</v>
+        <v>46073.16666666666</v>
       </c>
       <c r="B18">
-        <v>2.442</v>
+        <v>10.317</v>
       </c>
       <c r="C18">
-        <v>1.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46071.17708333334</v>
+        <v>46073.17708333334</v>
       </c>
       <c r="B19">
-        <v>9.074999999999999</v>
+        <v>3.049</v>
       </c>
       <c r="C19">
-        <v>0.288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46071.1875</v>
+        <v>46073.1875</v>
       </c>
       <c r="B20">
-        <v>24.412</v>
+        <v>17.883</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46071.19791666666</v>
+        <v>46073.19791666666</v>
       </c>
       <c r="B21">
-        <v>7.959</v>
+        <v>38.221</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -623,106 +623,106 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46071.20833333334</v>
+        <v>46073.20833333334</v>
       </c>
       <c r="B22">
+        <v>8.974</v>
+      </c>
+      <c r="C22">
         <v>0.005</v>
-      </c>
-      <c r="C22">
-        <v>18.52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46071.21875</v>
+        <v>46073.21875</v>
       </c>
       <c r="B23">
-        <v>0.012</v>
+        <v>29.043</v>
       </c>
       <c r="C23">
-        <v>9.137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46071.22916666666</v>
+        <v>46073.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.919</v>
+        <v>42.466</v>
       </c>
       <c r="C24">
-        <v>4.172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46071.23958333334</v>
+        <v>46073.23958333334</v>
       </c>
       <c r="B25">
-        <v>9.045999999999999</v>
+        <v>27.872</v>
       </c>
       <c r="C25">
-        <v>0.372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46071.25</v>
+        <v>46073.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="C26">
-        <v>10.637</v>
+        <v>9.836</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46071.26041666666</v>
+        <v>46073.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="C27">
-        <v>17.986</v>
+        <v>1.064</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46071.27083333334</v>
+        <v>46073.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C28">
-        <v>17.288</v>
+        <v>18.562</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46071.28125</v>
+        <v>46073.28125</v>
       </c>
       <c r="B29">
-        <v>1.287</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>2.822</v>
+        <v>10.846</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46071.29166666666</v>
+        <v>46073.29166666666</v>
       </c>
       <c r="B30">
-        <v>20.425</v>
+        <v>3.012</v>
       </c>
       <c r="C30">
-        <v>0.423</v>
+        <v>2.103</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46071.3125</v>
+        <v>46073.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -403,186 +403,186 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="B2">
-        <v>3.901</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.985</v>
+        <v>16.947</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46073.01041666666</v>
+        <v>46074.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.377</v>
+        <v>0.001</v>
       </c>
       <c r="C3">
-        <v>0.414</v>
+        <v>15.856</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46073.02083333334</v>
+        <v>46074.02083333334</v>
       </c>
       <c r="B4">
-        <v>18.573</v>
+        <v>2.005</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46073.03125</v>
+        <v>46074.03125</v>
       </c>
       <c r="B5">
-        <v>20.176</v>
+        <v>5.714</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46073.04166666666</v>
+        <v>46074.04166666666</v>
       </c>
       <c r="B6">
-        <v>6.017</v>
+        <v>3.562</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46073.05208333334</v>
+        <v>46074.05208333334</v>
       </c>
       <c r="B7">
-        <v>6.662</v>
+        <v>5.297</v>
       </c>
       <c r="C7">
-        <v>0.023</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46073.0625</v>
+        <v>46074.0625</v>
       </c>
       <c r="B8">
-        <v>22.576</v>
+        <v>6.691</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46073.07291666666</v>
+        <v>46074.07291666666</v>
       </c>
       <c r="B9">
-        <v>6.944</v>
+        <v>3.756</v>
       </c>
       <c r="C9">
-        <v>0.5669999999999999</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46073.08333333334</v>
+        <v>46074.08333333334</v>
       </c>
       <c r="B10">
-        <v>1.151</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5.161</v>
+        <v>4.734</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46073.09375</v>
+        <v>46074.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.272</v>
+        <v>2.018</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46073.10416666666</v>
+        <v>46074.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.363</v>
+        <v>4.442</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46073.11458333334</v>
+        <v>46074.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.529</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46073.125</v>
+        <v>46074.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="C14">
-        <v>3.005</v>
+        <v>7.666</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46073.13541666666</v>
+        <v>46074.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>18.493</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46073.14583333334</v>
+        <v>46074.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.013</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46073.15625</v>
+        <v>46074.15625</v>
       </c>
       <c r="B17">
-        <v>13.681</v>
+        <v>1.047</v>
       </c>
       <c r="C17">
-        <v>0.034</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46073.16666666666</v>
+        <v>46074.16666666666</v>
       </c>
       <c r="B18">
-        <v>10.317</v>
+        <v>10.8</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46073.17708333334</v>
+        <v>46074.17708333334</v>
       </c>
       <c r="B19">
-        <v>3.049</v>
+        <v>22.235</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -601,10 +601,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46073.1875</v>
+        <v>46074.1875</v>
       </c>
       <c r="B20">
-        <v>17.883</v>
+        <v>36.961</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46073.19791666666</v>
+        <v>46074.19791666666</v>
       </c>
       <c r="B21">
-        <v>38.221</v>
+        <v>65.893</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -623,21 +623,21 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46073.20833333334</v>
+        <v>46074.20833333334</v>
       </c>
       <c r="B22">
-        <v>8.974</v>
+        <v>26.968</v>
       </c>
       <c r="C22">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46073.21875</v>
+        <v>46074.21875</v>
       </c>
       <c r="B23">
-        <v>29.043</v>
+        <v>17.222</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -645,84 +645,84 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46073.22916666666</v>
+        <v>46074.22916666666</v>
       </c>
       <c r="B24">
-        <v>42.466</v>
+        <v>3.754</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46073.23958333334</v>
+        <v>46074.23958333334</v>
       </c>
       <c r="B25">
-        <v>27.872</v>
+        <v>2.345</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.242</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46073.25</v>
+        <v>46074.25</v>
       </c>
       <c r="B26">
-        <v>7.35</v>
+        <v>1.629</v>
       </c>
       <c r="C26">
-        <v>9.836</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46073.26041666666</v>
+        <v>46074.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.425</v>
+        <v>29.084</v>
       </c>
       <c r="C27">
-        <v>1.064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46073.27083333334</v>
+        <v>46074.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.001</v>
+        <v>29.924</v>
       </c>
       <c r="C28">
-        <v>18.562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46073.28125</v>
+        <v>46074.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>66.84699999999999</v>
       </c>
       <c r="C29">
-        <v>10.846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46073.29166666666</v>
+        <v>46074.29166666666</v>
       </c>
       <c r="B30">
-        <v>3.012</v>
+        <v>62.704</v>
       </c>
       <c r="C30">
-        <v>2.103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46073.30208333334</v>
+        <v>46074.3125</v>
       </c>
       <c r="B31">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,219 +403,219 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>46074</v>
+        <v>46079</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>12.406</v>
       </c>
       <c r="C2">
-        <v>16.947</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>46074.01041666666</v>
+        <v>46079.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.001</v>
+        <v>2.231</v>
       </c>
       <c r="C3">
-        <v>15.856</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>46074.02083333334</v>
+        <v>46079.02083333334</v>
       </c>
       <c r="B4">
-        <v>2.005</v>
+        <v>3.8</v>
       </c>
       <c r="C4">
-        <v>0.5580000000000001</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>46074.03125</v>
+        <v>46079.03125</v>
       </c>
       <c r="B5">
-        <v>5.714</v>
+        <v>3.092</v>
       </c>
       <c r="C5">
-        <v>0.021</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>46074.04166666666</v>
+        <v>46079.04166666666</v>
       </c>
       <c r="B6">
-        <v>3.562</v>
+        <v>17.412</v>
       </c>
       <c r="C6">
-        <v>0.425</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>46074.05208333334</v>
+        <v>46079.05208333334</v>
       </c>
       <c r="B7">
-        <v>5.297</v>
+        <v>24.545</v>
       </c>
       <c r="C7">
-        <v>0.856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>46074.0625</v>
+        <v>46079.0625</v>
       </c>
       <c r="B8">
-        <v>6.691</v>
+        <v>30.145</v>
       </c>
       <c r="C8">
-        <v>0.533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>46074.07291666666</v>
+        <v>46079.07291666666</v>
       </c>
       <c r="B9">
-        <v>3.756</v>
+        <v>14.545</v>
       </c>
       <c r="C9">
-        <v>0.005</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>46074.08333333334</v>
+        <v>46079.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>6.692</v>
       </c>
       <c r="C10">
-        <v>4.734</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46074.09375</v>
+        <v>46079.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>12.518</v>
       </c>
       <c r="C11">
-        <v>2.018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>46074.10416666666</v>
+        <v>46079.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.762</v>
       </c>
       <c r="C12">
-        <v>4.442</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>46074.11458333334</v>
+        <v>46079.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>10.892</v>
       </c>
       <c r="C13">
-        <v>3.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>46074.125</v>
+        <v>46079.125</v>
       </c>
       <c r="B14">
-        <v>0.205</v>
+        <v>11.2</v>
       </c>
       <c r="C14">
-        <v>7.666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>46074.13541666666</v>
+        <v>46079.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>11.882</v>
       </c>
       <c r="C15">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>46074.14583333334</v>
+        <v>46079.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3.459</v>
       </c>
       <c r="C16">
-        <v>3.52</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>46074.15625</v>
+        <v>46079.15625</v>
       </c>
       <c r="B17">
-        <v>1.047</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.762</v>
+        <v>4.762</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>46074.16666666666</v>
+        <v>46079.16666666666</v>
       </c>
       <c r="B18">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.983</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>46074.17708333334</v>
+        <v>46079.17708333334</v>
       </c>
       <c r="B19">
-        <v>22.235</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>46074.1875</v>
+        <v>46079.1875</v>
       </c>
       <c r="B20">
-        <v>36.961</v>
+        <v>15.189</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>46074.19791666666</v>
+        <v>46079.19791666666</v>
       </c>
       <c r="B21">
-        <v>65.893</v>
+        <v>11.738</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>46074.20833333334</v>
+        <v>46079.20833333334</v>
       </c>
       <c r="B22">
-        <v>26.968</v>
+        <v>23.345</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>46074.21875</v>
+        <v>46079.21875</v>
       </c>
       <c r="B23">
-        <v>17.222</v>
+        <v>23.495</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -645,43 +645,43 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>46074.22916666666</v>
+        <v>46079.22916666666</v>
       </c>
       <c r="B24">
-        <v>3.754</v>
+        <v>15.371</v>
       </c>
       <c r="C24">
-        <v>0.384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>46074.23958333334</v>
+        <v>46079.23958333334</v>
       </c>
       <c r="B25">
-        <v>2.345</v>
+        <v>22.128</v>
       </c>
       <c r="C25">
-        <v>1.242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>46074.25</v>
+        <v>46079.25</v>
       </c>
       <c r="B26">
-        <v>1.629</v>
+        <v>3.152</v>
       </c>
       <c r="C26">
-        <v>0.854</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>46074.26041666666</v>
+        <v>46079.26041666666</v>
       </c>
       <c r="B27">
-        <v>29.084</v>
+        <v>31.594</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -689,10 +689,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46074.27083333334</v>
+        <v>46079.27083333334</v>
       </c>
       <c r="B28">
-        <v>29.924</v>
+        <v>48.481</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46074.28125</v>
+        <v>46079.28125</v>
       </c>
       <c r="B29">
-        <v>66.84699999999999</v>
+        <v>40.719</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46074.29166666666</v>
+        <v>46079.29166666666</v>
       </c>
       <c r="B30">
-        <v>62.704</v>
+        <v>46.416</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -722,12 +722,133 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46074.3125</v>
+        <v>46079.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>6.198</v>
       </c>
       <c r="C31">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>46079.3125</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>46079.32291666666</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>46079.33333333334</v>
+      </c>
+      <c r="B34">
+        <v>0.186</v>
+      </c>
+      <c r="C34">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>46079.34375</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>46079.35416666666</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1.118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>46079.36458333334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>46079.375</v>
+      </c>
+      <c r="B38">
+        <v>7.07</v>
+      </c>
+      <c r="C38">
+        <v>0.533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>46079.38541666666</v>
+      </c>
+      <c r="B39">
+        <v>17.821</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>46079.39583333334</v>
+      </c>
+      <c r="B40">
+        <v>4.435</v>
+      </c>
+      <c r="C40">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>46079.40625</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>46079.41666666666</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
     </row>
